--- a/RAnalysis/Data/SDR_data/All_data_csv/Cumulative_output/Cumulative_resp_individually_worksheet.xlsx
+++ b/RAnalysis/Data/SDR_data/All_data_csv/Cumulative_output/Cumulative_resp_individually_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samjg\Documents\Notebook\data\Geoduck_Conditioning\RAnalysis\Data\SDR_data\All_data_csv\Cumulative_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{53D2C241-8735-4FB9-A774-6BF66B6949B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4D21F6C8-22D7-4D75-8549-944613302B86}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12645" windowHeight="6705" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5217" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5409" uniqueCount="190">
   <si>
     <t>Date</t>
   </si>
@@ -19086,8 +19086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155:J155"/>
+    <sheetView tabSelected="1" topLeftCell="A366" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N362" activeCellId="15" sqref="N1:N13 N26:N37 N50:N61 N74:N85 N98:N109 N122:N133 N146:N157 N170:N181 N194:N205 N218:N229 N242:N253 N266:N277 N290:N301 N314:N325 N338:N349 N362:N373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25865,7 +25865,7 @@
         <v>10.557795540690355</v>
       </c>
       <c r="N132" s="4">
-        <f t="shared" si="12"/>
+        <f>((((((L132/(1000/4))*(60))*31.998)/(H132*G132))))</f>
         <v>0.33782834171101001</v>
       </c>
       <c r="O132" s="6" t="s">
@@ -28897,6 +28897,12 @@
       <c r="G194" s="2">
         <v>10</v>
       </c>
+      <c r="H194">
+        <v>4.9322999999999997</v>
+      </c>
+      <c r="I194">
+        <v>0.58371874000000001</v>
+      </c>
       <c r="J194" s="5">
         <v>-2.778473752</v>
       </c>
@@ -28904,6 +28910,18 @@
         <f t="shared" si="14"/>
         <v>2.778473752</v>
       </c>
+      <c r="L194" s="3">
+        <f>((K194))-((AVERAGE(K206:K208)))</f>
+        <v>1.9732957746666666</v>
+      </c>
+      <c r="M194" s="4">
+        <f>(((((L194/(1000/4))*(60))*1000)/(H194*G194)))</f>
+        <v>9.6018284759645613</v>
+      </c>
+      <c r="N194" s="4">
+        <f>((((((L194/(1000/4))*(60))*31.998)/(H194*G194))))</f>
+        <v>0.30723930757391404</v>
+      </c>
       <c r="O194" s="6" t="s">
         <v>26</v>
       </c>
@@ -28930,6 +28948,12 @@
       <c r="G195" s="2">
         <v>10</v>
       </c>
+      <c r="H195">
+        <v>5.1593</v>
+      </c>
+      <c r="I195">
+        <v>0.83764751000000004</v>
+      </c>
       <c r="J195" s="5">
         <v>-2.5370259470000001</v>
       </c>
@@ -28937,6 +28961,18 @@
         <f t="shared" ref="K195:K258" si="19">ABS(J195)</f>
         <v>2.5370259470000001</v>
       </c>
+      <c r="L195" s="3">
+        <f>((K195))-((AVERAGE(K206:K208)))</f>
+        <v>1.7318479696666667</v>
+      </c>
+      <c r="M195" s="4">
+        <f>(((((L195/(1000/4))*(60))*1000)/(H195*G195)))</f>
+        <v>8.0561997309712545</v>
+      </c>
+      <c r="N195" s="4">
+        <f>((((((L195/(1000/4))*(60))*31.998)/(H195*G195))))</f>
+        <v>0.25778227899161821</v>
+      </c>
       <c r="O195" s="6" t="s">
         <v>26</v>
       </c>
@@ -28963,6 +28999,12 @@
       <c r="G196" s="2">
         <v>10</v>
       </c>
+      <c r="H196">
+        <v>5.4337999999999997</v>
+      </c>
+      <c r="I196">
+        <v>0.75936930000000002</v>
+      </c>
       <c r="J196" s="5">
         <v>-2.5251826730000002</v>
       </c>
@@ -28970,6 +29012,18 @@
         <f t="shared" si="19"/>
         <v>2.5251826730000002</v>
       </c>
+      <c r="L196" s="3">
+        <f>((K196))-((AVERAGE(K206:K208)))</f>
+        <v>1.7200046956666668</v>
+      </c>
+      <c r="M196" s="4">
+        <f>(((((L196/(1000/4))*(60))*1000)/(H196*G196)))</f>
+        <v>7.5969142581618767</v>
+      </c>
+      <c r="N196" s="4">
+        <f t="shared" ref="N196:N205" si="20">((((((L196/(1000/4))*(60))*31.998)/(H196*G196))))</f>
+        <v>0.24308606243266373</v>
+      </c>
       <c r="O196" s="6" t="s">
         <v>26</v>
       </c>
@@ -28996,6 +29050,12 @@
       <c r="G197" s="2">
         <v>10</v>
       </c>
+      <c r="H197">
+        <v>5.7079000000000004</v>
+      </c>
+      <c r="I197">
+        <v>0.56135124000000003</v>
+      </c>
       <c r="J197" s="5">
         <v>-2.6342663040000001</v>
       </c>
@@ -29003,6 +29063,18 @@
         <f t="shared" si="19"/>
         <v>2.6342663040000001</v>
       </c>
+      <c r="L197" s="3">
+        <f>((K197))-((AVERAGE(K209:K211)))</f>
+        <v>1.7213811916666666</v>
+      </c>
+      <c r="M197" s="4">
+        <f t="shared" ref="M197:M205" si="21">(((((L197/(1000/4))*(60))*1000)/(H197*G197)))</f>
+        <v>7.2378893463445388</v>
+      </c>
+      <c r="N197" s="4">
+        <f t="shared" si="20"/>
+        <v>0.23159798330433257</v>
+      </c>
       <c r="O197" s="6" t="s">
         <v>26</v>
       </c>
@@ -29029,6 +29101,12 @@
       <c r="G198" s="2">
         <v>10</v>
       </c>
+      <c r="H198">
+        <v>5.7378999999999998</v>
+      </c>
+      <c r="I198">
+        <v>1.1313366199999999</v>
+      </c>
       <c r="J198" s="5">
         <v>-2.646826897</v>
       </c>
@@ -29036,6 +29114,18 @@
         <f t="shared" si="19"/>
         <v>2.646826897</v>
       </c>
+      <c r="L198" s="3">
+        <f>((K198))-((AVERAGE(K209:K211)))</f>
+        <v>1.7339417846666665</v>
+      </c>
+      <c r="M198" s="4">
+        <f t="shared" si="21"/>
+        <v>7.2525841914289186</v>
+      </c>
+      <c r="N198" s="4">
+        <f t="shared" si="20"/>
+        <v>0.23206818895734255</v>
+      </c>
       <c r="O198" s="6" t="s">
         <v>26</v>
       </c>
@@ -29062,6 +29152,12 @@
       <c r="G199" s="2">
         <v>10</v>
       </c>
+      <c r="H199">
+        <v>5.8775000000000004</v>
+      </c>
+      <c r="I199">
+        <v>1.1580250700000001</v>
+      </c>
       <c r="J199" s="5">
         <v>-3.1038758560000002</v>
       </c>
@@ -29069,6 +29165,18 @@
         <f t="shared" si="19"/>
         <v>3.1038758560000002</v>
       </c>
+      <c r="L199" s="3">
+        <f>((K199))-((AVERAGE(K209:K211)))</f>
+        <v>2.1909907436666667</v>
+      </c>
+      <c r="M199" s="4">
+        <f t="shared" si="21"/>
+        <v>8.946623198298596</v>
+      </c>
+      <c r="N199" s="4">
+        <f t="shared" si="20"/>
+        <v>0.28627404909915849</v>
+      </c>
       <c r="O199" s="6" t="s">
         <v>26</v>
       </c>
@@ -29095,6 +29203,12 @@
       <c r="G200" s="2">
         <v>10</v>
       </c>
+      <c r="H200">
+        <v>5.4501111099999999</v>
+      </c>
+      <c r="I200">
+        <v>0.71844213999999995</v>
+      </c>
       <c r="J200" s="5">
         <v>-1.5980718759999999</v>
       </c>
@@ -29102,6 +29216,18 @@
         <f t="shared" si="19"/>
         <v>1.5980718759999999</v>
       </c>
+      <c r="L200" s="3">
+        <f>((K200))-((AVERAGE(K212:K214)))</f>
+        <v>0.60259071233333317</v>
+      </c>
+      <c r="M200" s="4">
+        <f t="shared" si="21"/>
+        <v>2.6535563778625417</v>
+      </c>
+      <c r="N200" s="4">
+        <f t="shared" si="20"/>
+        <v>8.4908496978845602E-2</v>
+      </c>
       <c r="O200" s="6" t="s">
         <v>26</v>
       </c>
@@ -29128,6 +29254,12 @@
       <c r="G201" s="2">
         <v>10</v>
       </c>
+      <c r="H201">
+        <v>5.2923</v>
+      </c>
+      <c r="I201">
+        <v>0.56710357</v>
+      </c>
       <c r="J201" s="5">
         <v>-2.416324124</v>
       </c>
@@ -29135,6 +29267,18 @@
         <f t="shared" si="19"/>
         <v>2.416324124</v>
       </c>
+      <c r="L201" s="3">
+        <f>((K201))-((AVERAGE(K212:K214)))</f>
+        <v>1.4208429603333332</v>
+      </c>
+      <c r="M201" s="4">
+        <f t="shared" si="21"/>
+        <v>6.4433669761729302</v>
+      </c>
+      <c r="N201" s="4">
+        <f t="shared" si="20"/>
+        <v>0.20617485650358144</v>
+      </c>
       <c r="O201" s="6" t="s">
         <v>26</v>
       </c>
@@ -29161,6 +29305,12 @@
       <c r="G202" s="2">
         <v>10</v>
       </c>
+      <c r="H202">
+        <v>5.5804</v>
+      </c>
+      <c r="I202">
+        <v>0.87316642</v>
+      </c>
       <c r="J202" s="5">
         <v>-2.417765766</v>
       </c>
@@ -29168,6 +29318,18 @@
         <f t="shared" si="19"/>
         <v>2.417765766</v>
       </c>
+      <c r="L202" s="3">
+        <f>((K202))-((AVERAGE(K212:K214)))</f>
+        <v>1.4222846023333333</v>
+      </c>
+      <c r="M202" s="4">
+        <f t="shared" si="21"/>
+        <v>6.1169146398107666</v>
+      </c>
+      <c r="N202" s="4">
+        <f t="shared" si="20"/>
+        <v>0.1957290346446649</v>
+      </c>
       <c r="O202" s="6" t="s">
         <v>26</v>
       </c>
@@ -29194,6 +29356,12 @@
       <c r="G203" s="2">
         <v>10</v>
       </c>
+      <c r="H203">
+        <v>5.8329000000000004</v>
+      </c>
+      <c r="I203">
+        <v>0.96890619</v>
+      </c>
       <c r="J203" s="5">
         <v>-4.2913339639999997</v>
       </c>
@@ -29201,6 +29369,18 @@
         <f t="shared" si="19"/>
         <v>4.2913339639999997</v>
       </c>
+      <c r="L203" s="3">
+        <f>((K203))-((AVERAGE(K215:K217)))</f>
+        <v>3.3533748776666665</v>
+      </c>
+      <c r="M203" s="4">
+        <f t="shared" si="21"/>
+        <v>13.797767330830288</v>
+      </c>
+      <c r="N203" s="4">
+        <f t="shared" si="20"/>
+        <v>0.4415009590519075</v>
+      </c>
       <c r="O203" s="6" t="s">
         <v>26</v>
       </c>
@@ -29227,6 +29407,12 @@
       <c r="G204" s="2">
         <v>10</v>
       </c>
+      <c r="H204">
+        <v>5.8636999999999997</v>
+      </c>
+      <c r="I204">
+        <v>0.8930787</v>
+      </c>
       <c r="J204" s="5">
         <v>-3.732930037</v>
       </c>
@@ -29234,6 +29420,18 @@
         <f t="shared" si="19"/>
         <v>3.732930037</v>
       </c>
+      <c r="L204" s="3">
+        <f>((K204))-((AVERAGE(K215:K217)))</f>
+        <v>2.7949709506666669</v>
+      </c>
+      <c r="M204" s="4">
+        <f t="shared" si="21"/>
+        <v>11.439756948002115</v>
+      </c>
+      <c r="N204" s="4">
+        <f t="shared" si="20"/>
+        <v>0.36604934282217172</v>
+      </c>
       <c r="O204" s="6" t="s">
         <v>26</v>
       </c>
@@ -29260,6 +29458,12 @@
       <c r="G205" s="2">
         <v>10</v>
       </c>
+      <c r="H205">
+        <v>6.2644000000000002</v>
+      </c>
+      <c r="I205">
+        <v>0.99160758000000004</v>
+      </c>
       <c r="J205" s="5">
         <v>-4.9085542149999997</v>
       </c>
@@ -29267,6 +29471,18 @@
         <f t="shared" si="19"/>
         <v>4.9085542149999997</v>
       </c>
+      <c r="L205" s="3">
+        <f>((K205))-((AVERAGE(K215:K217)))</f>
+        <v>3.9705951286666665</v>
+      </c>
+      <c r="M205" s="4">
+        <f t="shared" si="21"/>
+        <v>15.212036761381773</v>
+      </c>
+      <c r="N205" s="4">
+        <f t="shared" si="20"/>
+        <v>0.48675475229069398</v>
+      </c>
       <c r="O205" s="6" t="s">
         <v>26</v>
       </c>
@@ -29293,10 +29509,10 @@
       <c r="G206" s="2">
         <v>10</v>
       </c>
-      <c r="H206" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I206" s="2" t="s">
+      <c r="H206" t="s">
+        <v>167</v>
+      </c>
+      <c r="I206" t="s">
         <v>167</v>
       </c>
       <c r="J206" s="5">
@@ -29306,10 +29522,15 @@
         <f t="shared" si="19"/>
         <v>0.91553161999999999</v>
       </c>
+      <c r="L206" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M206" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N206" s="2"/>
+      <c r="N206" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O206" s="6" t="s">
         <v>26</v>
       </c>
@@ -29336,10 +29557,10 @@
       <c r="G207" s="2">
         <v>10</v>
       </c>
-      <c r="H207" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I207" s="2" t="s">
+      <c r="H207" t="s">
+        <v>167</v>
+      </c>
+      <c r="I207" t="s">
         <v>167</v>
       </c>
       <c r="J207" s="5">
@@ -29349,10 +29570,15 @@
         <f t="shared" si="19"/>
         <v>0.65939358299999995</v>
       </c>
+      <c r="L207" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M207" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N207" s="2"/>
+      <c r="N207" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O207" s="6" t="s">
         <v>26</v>
       </c>
@@ -29379,10 +29605,10 @@
       <c r="G208" s="2">
         <v>10</v>
       </c>
-      <c r="H208" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I208" s="2" t="s">
+      <c r="H208" t="s">
+        <v>167</v>
+      </c>
+      <c r="I208" t="s">
         <v>167</v>
       </c>
       <c r="J208" s="5">
@@ -29392,10 +29618,15 @@
         <f t="shared" si="19"/>
         <v>0.84060872900000005</v>
       </c>
+      <c r="L208" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M208" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N208" s="2"/>
+      <c r="N208" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O208" s="6" t="s">
         <v>26</v>
       </c>
@@ -29422,10 +29653,10 @@
       <c r="G209" s="2">
         <v>10</v>
       </c>
-      <c r="H209" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I209" s="2" t="s">
+      <c r="H209" t="s">
+        <v>167</v>
+      </c>
+      <c r="I209" t="s">
         <v>167</v>
       </c>
       <c r="J209" s="5">
@@ -29435,10 +29666,15 @@
         <f t="shared" si="19"/>
         <v>0.98132615700000003</v>
       </c>
+      <c r="L209" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M209" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N209" s="2"/>
+      <c r="N209" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O209" s="6" t="s">
         <v>26</v>
       </c>
@@ -29465,10 +29701,10 @@
       <c r="G210" s="2">
         <v>10</v>
       </c>
-      <c r="H210" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I210" s="2" t="s">
+      <c r="H210" t="s">
+        <v>167</v>
+      </c>
+      <c r="I210" t="s">
         <v>167</v>
       </c>
       <c r="J210" s="5">
@@ -29478,10 +29714,15 @@
         <f t="shared" si="19"/>
         <v>0.79587203699999998</v>
       </c>
+      <c r="L210" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M210" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N210" s="2"/>
+      <c r="N210" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O210" s="6" t="s">
         <v>26</v>
       </c>
@@ -29508,10 +29749,10 @@
       <c r="G211" s="2">
         <v>10</v>
       </c>
-      <c r="H211" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I211" s="2" t="s">
+      <c r="H211" t="s">
+        <v>167</v>
+      </c>
+      <c r="I211" t="s">
         <v>167</v>
       </c>
       <c r="J211" s="5">
@@ -29521,10 +29762,15 @@
         <f t="shared" si="19"/>
         <v>0.96145714299999996</v>
       </c>
+      <c r="L211" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M211" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N211" s="2"/>
+      <c r="N211" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O211" s="6" t="s">
         <v>26</v>
       </c>
@@ -29551,10 +29797,10 @@
       <c r="G212" s="2">
         <v>10</v>
       </c>
-      <c r="H212" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I212" s="2" t="s">
+      <c r="H212" t="s">
+        <v>167</v>
+      </c>
+      <c r="I212" t="s">
         <v>167</v>
       </c>
       <c r="J212" s="5">
@@ -29564,10 +29810,15 @@
         <f t="shared" si="19"/>
         <v>0.92259337600000002</v>
       </c>
+      <c r="L212" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M212" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N212" s="2"/>
+      <c r="N212" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O212" s="6" t="s">
         <v>26</v>
       </c>
@@ -29594,10 +29845,10 @@
       <c r="G213" s="2">
         <v>10</v>
       </c>
-      <c r="H213" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I213" s="2" t="s">
+      <c r="H213" t="s">
+        <v>167</v>
+      </c>
+      <c r="I213" t="s">
         <v>167</v>
       </c>
       <c r="J213" s="5">
@@ -29607,10 +29858,15 @@
         <f t="shared" si="19"/>
         <v>0.93592503100000002</v>
       </c>
+      <c r="L213" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M213" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N213" s="2"/>
+      <c r="N213" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O213" s="6" t="s">
         <v>26</v>
       </c>
@@ -29637,10 +29893,10 @@
       <c r="G214" s="2">
         <v>10</v>
       </c>
-      <c r="H214" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I214" s="2" t="s">
+      <c r="H214" t="s">
+        <v>167</v>
+      </c>
+      <c r="I214" t="s">
         <v>167</v>
       </c>
       <c r="J214" s="5">
@@ -29650,10 +29906,15 @@
         <f t="shared" si="19"/>
         <v>1.1279250839999999</v>
       </c>
+      <c r="L214" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M214" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N214" s="2"/>
+      <c r="N214" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O214" s="6" t="s">
         <v>26</v>
       </c>
@@ -29680,10 +29941,10 @@
       <c r="G215" s="2">
         <v>10</v>
       </c>
-      <c r="H215" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I215" s="2" t="s">
+      <c r="H215" t="s">
+        <v>167</v>
+      </c>
+      <c r="I215" t="s">
         <v>167</v>
       </c>
       <c r="J215" s="5">
@@ -29693,10 +29954,15 @@
         <f t="shared" si="19"/>
         <v>1.032782077</v>
       </c>
+      <c r="L215" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M215" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N215" s="2"/>
+      <c r="N215" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O215" s="6" t="s">
         <v>26</v>
       </c>
@@ -29723,10 +29989,10 @@
       <c r="G216" s="2">
         <v>10</v>
       </c>
-      <c r="H216" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I216" s="2" t="s">
+      <c r="H216" t="s">
+        <v>167</v>
+      </c>
+      <c r="I216" t="s">
         <v>167</v>
       </c>
       <c r="J216" s="5">
@@ -29736,10 +30002,15 @@
         <f t="shared" si="19"/>
         <v>1.0033266970000001</v>
       </c>
+      <c r="L216" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M216" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N216" s="2"/>
+      <c r="N216" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O216" s="6" t="s">
         <v>26</v>
       </c>
@@ -29766,10 +30037,10 @@
       <c r="G217" s="2">
         <v>10</v>
       </c>
-      <c r="H217" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I217" s="2" t="s">
+      <c r="H217" t="s">
+        <v>167</v>
+      </c>
+      <c r="I217" t="s">
         <v>167</v>
       </c>
       <c r="J217" s="5">
@@ -29779,10 +30050,15 @@
         <f t="shared" si="19"/>
         <v>0.77776848499999995</v>
       </c>
+      <c r="L217" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M217" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N217" s="2"/>
+      <c r="N217" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O217" s="6" t="s">
         <v>26</v>
       </c>
@@ -29809,6 +30085,12 @@
       <c r="G218" s="2">
         <v>10</v>
       </c>
+      <c r="H218">
+        <v>5.3780000000000001</v>
+      </c>
+      <c r="I218">
+        <v>0.60103965999999998</v>
+      </c>
       <c r="J218" s="5">
         <v>-3.4325617949999998</v>
       </c>
@@ -29816,6 +30098,18 @@
         <f t="shared" si="19"/>
         <v>3.4325617949999998</v>
       </c>
+      <c r="L218" s="3">
+        <f>((K218))-((AVERAGE(K230:K232)))</f>
+        <v>2.5102018299999997</v>
+      </c>
+      <c r="M218" s="4">
+        <f>(((((L218/(1000/4))*(60))*1000)/(H218*G218)))</f>
+        <v>11.202090725176644</v>
+      </c>
+      <c r="N218" s="4">
+        <f>((((((L218/(1000/4))*(60))*31.998)/(H218*G218))))</f>
+        <v>0.35844449902420228</v>
+      </c>
       <c r="O218" s="6" t="s">
         <v>26</v>
       </c>
@@ -29842,6 +30136,12 @@
       <c r="G219" s="2">
         <v>10</v>
       </c>
+      <c r="H219">
+        <v>5.4413</v>
+      </c>
+      <c r="I219">
+        <v>0.77524462999999999</v>
+      </c>
       <c r="J219" s="5">
         <v>-3.9188818319999998</v>
       </c>
@@ -29849,6 +30149,18 @@
         <f t="shared" si="19"/>
         <v>3.9188818319999998</v>
       </c>
+      <c r="L219" s="3">
+        <f>((K219))-((AVERAGE(K230:K232)))</f>
+        <v>2.9965218669999998</v>
+      </c>
+      <c r="M219" s="4">
+        <f>(((((L219/(1000/4))*(60))*1000)/(H219*G219)))</f>
+        <v>13.21679098891809</v>
+      </c>
+      <c r="N219" s="4">
+        <f>((((((L219/(1000/4))*(60))*31.998)/(H219*G219))))</f>
+        <v>0.422910878063401</v>
+      </c>
       <c r="O219" s="6" t="s">
         <v>26</v>
       </c>
@@ -29875,6 +30187,12 @@
       <c r="G220" s="2">
         <v>10</v>
       </c>
+      <c r="H220">
+        <v>5.3998999999999997</v>
+      </c>
+      <c r="I220">
+        <v>0.82067606999999998</v>
+      </c>
       <c r="J220" s="5">
         <v>-3.0155294119999998</v>
       </c>
@@ -29882,6 +30200,18 @@
         <f t="shared" si="19"/>
         <v>3.0155294119999998</v>
       </c>
+      <c r="L220" s="3">
+        <f>((K220))-((AVERAGE(K230:K232)))</f>
+        <v>2.0931694469999997</v>
+      </c>
+      <c r="M220" s="4">
+        <f>(((((L220/(1000/4))*(60))*1000)/(H220*G220)))</f>
+        <v>9.3031476005111209</v>
+      </c>
+      <c r="N220" s="4">
+        <f t="shared" ref="N220:N229" si="22">((((((L220/(1000/4))*(60))*31.998)/(H220*G220))))</f>
+        <v>0.29768211692115482</v>
+      </c>
       <c r="O220" s="6" t="s">
         <v>39</v>
       </c>
@@ -29908,6 +30238,12 @@
       <c r="G221" s="2">
         <v>10</v>
       </c>
+      <c r="H221">
+        <v>5.9619</v>
+      </c>
+      <c r="I221">
+        <v>0.88896249999999999</v>
+      </c>
       <c r="J221" s="5">
         <v>-1.610861495</v>
       </c>
@@ -29915,6 +30251,18 @@
         <f t="shared" si="19"/>
         <v>1.610861495</v>
       </c>
+      <c r="L221" s="3">
+        <f>((K221))-((AVERAGE(K233:K235)))</f>
+        <v>0.4127190123333333</v>
+      </c>
+      <c r="M221" s="4">
+        <f t="shared" ref="M221:M229" si="23">(((((L221/(1000/4))*(60))*1000)/(H221*G221)))</f>
+        <v>1.6614261051007226</v>
+      </c>
+      <c r="N221" s="4">
+        <f t="shared" si="22"/>
+        <v>5.316231251101293E-2</v>
+      </c>
       <c r="O221" s="6" t="s">
         <v>26</v>
       </c>
@@ -29941,6 +30289,12 @@
       <c r="G222" s="2">
         <v>10</v>
       </c>
+      <c r="H222">
+        <v>6.0487000000000002</v>
+      </c>
+      <c r="I222">
+        <v>0.6625607</v>
+      </c>
       <c r="J222" s="5">
         <v>-2.8198827419999999</v>
       </c>
@@ -29948,6 +30302,18 @@
         <f t="shared" si="19"/>
         <v>2.8198827419999999</v>
       </c>
+      <c r="L222" s="3">
+        <f>((K222))-((AVERAGE(K233:K235)))</f>
+        <v>1.6217402593333332</v>
+      </c>
+      <c r="M222" s="4">
+        <f t="shared" si="23"/>
+        <v>6.4347324588754606</v>
+      </c>
+      <c r="N222" s="4">
+        <f t="shared" si="22"/>
+        <v>0.20589856921909699</v>
+      </c>
       <c r="O222" s="6" t="s">
         <v>26</v>
       </c>
@@ -29974,6 +30340,12 @@
       <c r="G223" s="2">
         <v>10</v>
       </c>
+      <c r="H223">
+        <v>6.0643000000000002</v>
+      </c>
+      <c r="I223">
+        <v>0.73084092</v>
+      </c>
       <c r="J223" s="5">
         <v>-3.5264783089999998</v>
       </c>
@@ -29981,6 +30353,18 @@
         <f t="shared" si="19"/>
         <v>3.5264783089999998</v>
       </c>
+      <c r="L223" s="3">
+        <f>((K223))-((AVERAGE(K233:K235)))</f>
+        <v>2.3283358263333334</v>
+      </c>
+      <c r="M223" s="4">
+        <f t="shared" si="23"/>
+        <v>9.2145935774945169</v>
+      </c>
+      <c r="N223" s="4">
+        <f t="shared" si="22"/>
+        <v>0.29484856529266951</v>
+      </c>
       <c r="O223" s="6" t="s">
         <v>39</v>
       </c>
@@ -30007,6 +30391,12 @@
       <c r="G224" s="2">
         <v>10</v>
       </c>
+      <c r="H224">
+        <v>5.7492999999999999</v>
+      </c>
+      <c r="I224">
+        <v>0.70055533999999997</v>
+      </c>
       <c r="J224" s="5">
         <v>-2.5257182</v>
       </c>
@@ -30014,6 +30404,18 @@
         <f t="shared" si="19"/>
         <v>2.5257182</v>
       </c>
+      <c r="L224" s="3">
+        <f>((K224))-((AVERAGE(K236:K238)))</f>
+        <v>1.4914673759999999</v>
+      </c>
+      <c r="M224" s="4">
+        <f t="shared" si="23"/>
+        <v>6.2260130840276213</v>
+      </c>
+      <c r="N224" s="4">
+        <f t="shared" si="22"/>
+        <v>0.19921996666271582</v>
+      </c>
       <c r="O224" s="6" t="s">
         <v>26</v>
       </c>
@@ -30040,6 +30442,12 @@
       <c r="G225" s="2">
         <v>10</v>
       </c>
+      <c r="H225">
+        <v>5.8113000000000001</v>
+      </c>
+      <c r="I225">
+        <v>0.53792483000000002</v>
+      </c>
       <c r="J225" s="5">
         <v>-1.9815127990000001</v>
       </c>
@@ -30047,6 +30455,18 @@
         <f t="shared" si="19"/>
         <v>1.9815127990000001</v>
       </c>
+      <c r="L225" s="3">
+        <f>((K225))-((AVERAGE(K236:K238)))</f>
+        <v>0.94726197499999998</v>
+      </c>
+      <c r="M225" s="4">
+        <f t="shared" si="23"/>
+        <v>3.9120829074389549</v>
+      </c>
+      <c r="N225" s="4">
+        <f t="shared" si="22"/>
+        <v>0.1251788288722317</v>
+      </c>
       <c r="O225" s="6" t="s">
         <v>26</v>
       </c>
@@ -30073,6 +30493,12 @@
       <c r="G226" s="2">
         <v>10</v>
       </c>
+      <c r="H226">
+        <v>5.7210000000000001</v>
+      </c>
+      <c r="I226">
+        <v>0.60430804999999999</v>
+      </c>
       <c r="J226" s="5">
         <v>-4.2478797019999996</v>
       </c>
@@ -30080,6 +30506,18 @@
         <f t="shared" si="19"/>
         <v>4.2478797019999996</v>
       </c>
+      <c r="L226" s="3">
+        <f>((K226))-((AVERAGE(K236:K238)))</f>
+        <v>3.2136288779999997</v>
+      </c>
+      <c r="M226" s="4">
+        <f t="shared" si="23"/>
+        <v>13.481400641845829</v>
+      </c>
+      <c r="N226" s="4">
+        <f t="shared" si="22"/>
+        <v>0.43137785773778281</v>
+      </c>
       <c r="O226" s="6" t="s">
         <v>26</v>
       </c>
@@ -30106,6 +30544,12 @@
       <c r="G227" s="2">
         <v>10</v>
       </c>
+      <c r="H227">
+        <v>5.3769999999999998</v>
+      </c>
+      <c r="I227">
+        <v>0.87764355999999999</v>
+      </c>
       <c r="J227" s="5">
         <v>-2.9425378310000001</v>
       </c>
@@ -30113,6 +30557,18 @@
         <f t="shared" si="19"/>
         <v>2.9425378310000001</v>
       </c>
+      <c r="L227" s="3">
+        <f>((K227))-((AVERAGE(K239:K241)))</f>
+        <v>1.962736526</v>
+      </c>
+      <c r="M227" s="4">
+        <f t="shared" si="23"/>
+        <v>8.7605870604426279</v>
+      </c>
+      <c r="N227" s="4">
+        <f t="shared" si="22"/>
+        <v>0.28032126476004321</v>
+      </c>
       <c r="O227" s="6" t="s">
         <v>26</v>
       </c>
@@ -30139,6 +30595,12 @@
       <c r="G228" s="2">
         <v>10</v>
       </c>
+      <c r="H228">
+        <v>5.8612000000000002</v>
+      </c>
+      <c r="I228">
+        <v>0.47940907999999999</v>
+      </c>
       <c r="J228" s="5">
         <v>-3.1868113619999998</v>
       </c>
@@ -30146,6 +30608,18 @@
         <f t="shared" si="19"/>
         <v>3.1868113619999998</v>
       </c>
+      <c r="L228" s="3">
+        <f>((K228))-((AVERAGE(K239:K241)))</f>
+        <v>2.2070100569999997</v>
+      </c>
+      <c r="M228" s="4">
+        <f t="shared" si="23"/>
+        <v>9.0370984385450068</v>
+      </c>
+      <c r="N228" s="4">
+        <f t="shared" si="22"/>
+        <v>0.28916907583656315</v>
+      </c>
       <c r="O228" s="6" t="s">
         <v>26</v>
       </c>
@@ -30172,6 +30646,12 @@
       <c r="G229" s="2">
         <v>10</v>
       </c>
+      <c r="H229">
+        <v>6.1589</v>
+      </c>
+      <c r="I229">
+        <v>0.65278232999999997</v>
+      </c>
       <c r="J229" s="5">
         <v>-2.585032258</v>
       </c>
@@ -30179,6 +30659,18 @@
         <f t="shared" si="19"/>
         <v>2.585032258</v>
       </c>
+      <c r="L229" s="3">
+        <f>((K229))-((AVERAGE(K239:K241)))</f>
+        <v>1.605230953</v>
+      </c>
+      <c r="M229" s="4">
+        <f t="shared" si="23"/>
+        <v>6.2552635814837059</v>
+      </c>
+      <c r="N229" s="4">
+        <f t="shared" si="22"/>
+        <v>0.20015592408031563</v>
+      </c>
       <c r="O229" s="6" t="s">
         <v>26</v>
       </c>
@@ -30205,10 +30697,10 @@
       <c r="G230" s="2">
         <v>10</v>
       </c>
-      <c r="H230" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I230" s="2" t="s">
+      <c r="H230" t="s">
+        <v>167</v>
+      </c>
+      <c r="I230" t="s">
         <v>167</v>
       </c>
       <c r="J230" s="5">
@@ -30218,10 +30710,15 @@
         <f t="shared" si="19"/>
         <v>0.876405039</v>
       </c>
+      <c r="L230" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M230" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N230" s="2"/>
+      <c r="N230" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O230" s="6" t="s">
         <v>158</v>
       </c>
@@ -30248,10 +30745,10 @@
       <c r="G231" s="2">
         <v>10</v>
       </c>
-      <c r="H231" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I231" s="2" t="s">
+      <c r="H231" t="s">
+        <v>167</v>
+      </c>
+      <c r="I231" t="s">
         <v>167</v>
       </c>
       <c r="J231" s="5">
@@ -30261,10 +30758,15 @@
         <f t="shared" si="19"/>
         <v>1.043317193</v>
       </c>
+      <c r="L231" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M231" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N231" s="2"/>
+      <c r="N231" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O231" s="6" t="s">
         <v>158</v>
       </c>
@@ -30291,10 +30793,10 @@
       <c r="G232" s="2">
         <v>10</v>
       </c>
-      <c r="H232" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I232" s="2" t="s">
+      <c r="H232" t="s">
+        <v>167</v>
+      </c>
+      <c r="I232" t="s">
         <v>167</v>
       </c>
       <c r="J232" s="5">
@@ -30304,10 +30806,15 @@
         <f t="shared" si="19"/>
         <v>0.84735766300000004</v>
       </c>
+      <c r="L232" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M232" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N232" s="2"/>
+      <c r="N232" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O232" s="6" t="s">
         <v>158</v>
       </c>
@@ -30334,10 +30841,10 @@
       <c r="G233" s="2">
         <v>10</v>
       </c>
-      <c r="H233" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I233" s="2" t="s">
+      <c r="H233" t="s">
+        <v>167</v>
+      </c>
+      <c r="I233" t="s">
         <v>167</v>
       </c>
       <c r="J233" s="5">
@@ -30347,10 +30854,15 @@
         <f t="shared" si="19"/>
         <v>1.4383067300000001</v>
       </c>
+      <c r="L233" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M233" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N233" s="2"/>
+      <c r="N233" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O233" s="6" t="s">
         <v>158</v>
       </c>
@@ -30377,10 +30889,10 @@
       <c r="G234" s="2">
         <v>10</v>
       </c>
-      <c r="H234" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I234" s="2" t="s">
+      <c r="H234" t="s">
+        <v>167</v>
+      </c>
+      <c r="I234" t="s">
         <v>167</v>
       </c>
       <c r="J234" s="5">
@@ -30390,10 +30902,15 @@
         <f t="shared" si="19"/>
         <v>1.236698756</v>
       </c>
+      <c r="L234" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M234" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N234" s="2"/>
+      <c r="N234" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O234" s="6" t="s">
         <v>158</v>
       </c>
@@ -30420,10 +30937,10 @@
       <c r="G235" s="2">
         <v>10</v>
       </c>
-      <c r="H235" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I235" s="2" t="s">
+      <c r="H235" t="s">
+        <v>167</v>
+      </c>
+      <c r="I235" t="s">
         <v>167</v>
       </c>
       <c r="J235" s="5">
@@ -30433,10 +30950,15 @@
         <f t="shared" si="19"/>
         <v>0.91942196200000004</v>
       </c>
+      <c r="L235" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M235" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N235" s="2"/>
+      <c r="N235" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O235" s="6" t="s">
         <v>158</v>
       </c>
@@ -30463,10 +30985,10 @@
       <c r="G236" s="2">
         <v>10</v>
       </c>
-      <c r="H236" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I236" s="2" t="s">
+      <c r="H236" t="s">
+        <v>167</v>
+      </c>
+      <c r="I236" t="s">
         <v>167</v>
       </c>
       <c r="J236" s="5">
@@ -30476,10 +30998,15 @@
         <f t="shared" si="19"/>
         <v>0.91898908000000001</v>
       </c>
+      <c r="L236" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M236" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N236" s="2"/>
+      <c r="N236" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O236" s="6" t="s">
         <v>158</v>
       </c>
@@ -30506,10 +31033,10 @@
       <c r="G237" s="2">
         <v>10</v>
       </c>
-      <c r="H237" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I237" s="2" t="s">
+      <c r="H237" t="s">
+        <v>167</v>
+      </c>
+      <c r="I237" t="s">
         <v>167</v>
       </c>
       <c r="J237" s="5">
@@ -30519,10 +31046,15 @@
         <f t="shared" si="19"/>
         <v>1.092306969</v>
       </c>
+      <c r="L237" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M237" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N237" s="2"/>
+      <c r="N237" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O237" s="6" t="s">
         <v>158</v>
       </c>
@@ -30549,10 +31081,10 @@
       <c r="G238" s="2">
         <v>10</v>
       </c>
-      <c r="H238" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I238" s="2" t="s">
+      <c r="H238" t="s">
+        <v>167</v>
+      </c>
+      <c r="I238" t="s">
         <v>167</v>
       </c>
       <c r="J238" s="5">
@@ -30562,10 +31094,15 @@
         <f t="shared" si="19"/>
         <v>1.0914564229999999</v>
       </c>
+      <c r="L238" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M238" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N238" s="2"/>
+      <c r="N238" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O238" s="6" t="s">
         <v>158</v>
       </c>
@@ -30592,10 +31129,10 @@
       <c r="G239" s="2">
         <v>10</v>
       </c>
-      <c r="H239" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I239" s="2" t="s">
+      <c r="H239" t="s">
+        <v>167</v>
+      </c>
+      <c r="I239" t="s">
         <v>167</v>
       </c>
       <c r="J239" s="5">
@@ -30605,10 +31142,15 @@
         <f t="shared" si="19"/>
         <v>1.0250985589999999</v>
       </c>
+      <c r="L239" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M239" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N239" s="2"/>
+      <c r="N239" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O239" s="6" t="s">
         <v>158</v>
       </c>
@@ -30635,10 +31177,10 @@
       <c r="G240" s="2">
         <v>10</v>
       </c>
-      <c r="H240" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I240" s="2" t="s">
+      <c r="H240" t="s">
+        <v>167</v>
+      </c>
+      <c r="I240" t="s">
         <v>167</v>
       </c>
       <c r="J240" s="5">
@@ -30648,10 +31190,15 @@
         <f t="shared" si="19"/>
         <v>1.142742283</v>
       </c>
+      <c r="L240" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M240" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N240" s="2"/>
+      <c r="N240" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O240" s="6" t="s">
         <v>158</v>
       </c>
@@ -30678,10 +31225,10 @@
       <c r="G241" s="2">
         <v>10</v>
       </c>
-      <c r="H241" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I241" s="2" t="s">
+      <c r="H241" t="s">
+        <v>167</v>
+      </c>
+      <c r="I241" t="s">
         <v>167</v>
       </c>
       <c r="J241" s="5">
@@ -30691,10 +31238,15 @@
         <f t="shared" si="19"/>
         <v>0.77156307300000004</v>
       </c>
+      <c r="L241" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M241" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N241" s="2"/>
+      <c r="N241" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O241" s="6" t="s">
         <v>158</v>
       </c>
@@ -30721,6 +31273,12 @@
       <c r="G242" s="2">
         <v>10</v>
       </c>
+      <c r="H242">
+        <v>5.4892000000000003</v>
+      </c>
+      <c r="I242">
+        <v>0.94760842999999995</v>
+      </c>
       <c r="J242" s="5">
         <v>-2.3118821349999998</v>
       </c>
@@ -30728,6 +31286,18 @@
         <f t="shared" si="19"/>
         <v>2.3118821349999998</v>
       </c>
+      <c r="L242" s="3">
+        <f>((K242))-((AVERAGE(K254:K256)))</f>
+        <v>1.0400715846666666</v>
+      </c>
+      <c r="M242" s="4">
+        <f>(((((L242/(1000/4))*(60))*1000)/(H242*G242)))</f>
+        <v>4.5474236741237339</v>
+      </c>
+      <c r="N242" s="4">
+        <f>((((((L242/(1000/4))*(60))*31.998)/(H242*G242))))</f>
+        <v>0.14550846272461124</v>
+      </c>
       <c r="O242" s="6" t="s">
         <v>26</v>
       </c>
@@ -30754,6 +31324,12 @@
       <c r="G243" s="2">
         <v>9</v>
       </c>
+      <c r="H243">
+        <v>5.4888888900000001</v>
+      </c>
+      <c r="I243">
+        <v>0.62125828999999999</v>
+      </c>
       <c r="J243" s="5">
         <v>-2.7063702369999998</v>
       </c>
@@ -30761,6 +31337,18 @@
         <f t="shared" si="19"/>
         <v>2.7063702369999998</v>
       </c>
+      <c r="L243" s="3">
+        <f>((K243))-((AVERAGE(K254:K256)))</f>
+        <v>1.4345596866666666</v>
+      </c>
+      <c r="M243" s="4">
+        <f>(((((L243/(1000/4))*(60))*1000)/(H243*G243)))</f>
+        <v>6.9695207435284363</v>
+      </c>
+      <c r="N243" s="4">
+        <f>((((((L243/(1000/4))*(60))*31.998)/(H243*G243))))</f>
+        <v>0.22301072475142292</v>
+      </c>
       <c r="O243" s="6" t="s">
         <v>26</v>
       </c>
@@ -30787,6 +31375,12 @@
       <c r="G244" s="2">
         <v>10</v>
       </c>
+      <c r="H244">
+        <v>5.2324000000000002</v>
+      </c>
+      <c r="I244">
+        <v>0.73674256000000005</v>
+      </c>
       <c r="J244" s="5">
         <v>-3.1607671480000001</v>
       </c>
@@ -30794,6 +31388,18 @@
         <f t="shared" si="19"/>
         <v>3.1607671480000001</v>
       </c>
+      <c r="L244" s="3">
+        <f>((K244))-((AVERAGE(K254:K256)))</f>
+        <v>1.8889565976666669</v>
+      </c>
+      <c r="M244" s="4">
+        <f>(((((L244/(1000/4))*(60))*1000)/(H244*G244)))</f>
+        <v>8.6642761149759213</v>
+      </c>
+      <c r="N244" s="4">
+        <f t="shared" ref="N244:N253" si="24">((((((L244/(1000/4))*(60))*31.998)/(H244*G244))))</f>
+        <v>0.27723950712699952</v>
+      </c>
       <c r="O244" s="6" t="s">
         <v>39</v>
       </c>
@@ -30820,6 +31426,12 @@
       <c r="G245" s="2">
         <v>10</v>
       </c>
+      <c r="H245">
+        <v>6.0930999999999997</v>
+      </c>
+      <c r="I245">
+        <v>0.72982515999999997</v>
+      </c>
       <c r="J245" s="5">
         <v>-2.5194019079999999</v>
       </c>
@@ -30827,6 +31439,18 @@
         <f t="shared" si="19"/>
         <v>2.5194019079999999</v>
       </c>
+      <c r="L245" s="3">
+        <f>((K245))-((AVERAGE(K257:K259)))</f>
+        <v>1.3390776026666664</v>
+      </c>
+      <c r="M245" s="4">
+        <f t="shared" ref="M245:M253" si="25">(((((L245/(1000/4))*(60))*1000)/(H245*G245)))</f>
+        <v>5.2744682450640878</v>
+      </c>
+      <c r="N245" s="4">
+        <f t="shared" si="24"/>
+        <v>0.16877243490556071</v>
+      </c>
       <c r="O245" s="6" t="s">
         <v>39</v>
       </c>
@@ -30853,6 +31477,12 @@
       <c r="G246" s="2">
         <v>10</v>
       </c>
+      <c r="H246">
+        <v>5.9587000000000003</v>
+      </c>
+      <c r="I246">
+        <v>0.63393341000000003</v>
+      </c>
       <c r="J246" s="5">
         <v>-2.8568369109999998</v>
       </c>
@@ -30860,6 +31490,18 @@
         <f t="shared" si="19"/>
         <v>2.8568369109999998</v>
       </c>
+      <c r="L246" s="3">
+        <f>((K246))-((AVERAGE(K257:K259)))</f>
+        <v>1.6765126056666664</v>
+      </c>
+      <c r="M246" s="4">
+        <f t="shared" si="25"/>
+        <v>6.7525303398392245</v>
+      </c>
+      <c r="N246" s="4">
+        <f t="shared" si="24"/>
+        <v>0.21606746581417555</v>
+      </c>
       <c r="O246" s="6" t="s">
         <v>26</v>
       </c>
@@ -30886,6 +31528,12 @@
       <c r="G247" s="2">
         <v>10</v>
       </c>
+      <c r="H247">
+        <v>6.0583</v>
+      </c>
+      <c r="I247">
+        <v>0.63331263999999998</v>
+      </c>
       <c r="J247" s="5">
         <v>-2.6085812929999999</v>
       </c>
@@ -30893,6 +31541,18 @@
         <f t="shared" si="19"/>
         <v>2.6085812929999999</v>
       </c>
+      <c r="L247" s="3">
+        <f>((K247))-((AVERAGE(K257:K259)))</f>
+        <v>1.4282569876666664</v>
+      </c>
+      <c r="M247" s="4">
+        <f t="shared" si="25"/>
+        <v>5.658050559397851</v>
+      </c>
+      <c r="N247" s="4">
+        <f t="shared" si="24"/>
+        <v>0.18104630179961242</v>
+      </c>
       <c r="O247" s="6" t="s">
         <v>26</v>
       </c>
@@ -30919,6 +31579,12 @@
       <c r="G248" s="2">
         <v>10</v>
       </c>
+      <c r="H248">
+        <v>5.5022000000000002</v>
+      </c>
+      <c r="I248">
+        <v>0.91481769999999996</v>
+      </c>
       <c r="J248" s="5">
         <v>-3.529316487</v>
       </c>
@@ -30926,6 +31592,18 @@
         <f t="shared" si="19"/>
         <v>3.529316487</v>
       </c>
+      <c r="L248" s="3">
+        <f>((K248))-((AVERAGE(K260:K262)))</f>
+        <v>2.2415160003333332</v>
+      </c>
+      <c r="M248" s="4">
+        <f t="shared" si="25"/>
+        <v>9.7772498287957532</v>
+      </c>
+      <c r="N248" s="4">
+        <f t="shared" si="24"/>
+        <v>0.31285244002180651</v>
+      </c>
       <c r="O248" s="6" t="s">
         <v>26</v>
       </c>
@@ -30952,6 +31630,12 @@
       <c r="G249" s="2">
         <v>10</v>
       </c>
+      <c r="H249">
+        <v>5.2782999999999998</v>
+      </c>
+      <c r="I249">
+        <v>0.56309975999999995</v>
+      </c>
       <c r="J249" s="5">
         <v>-2.5874058390000001</v>
       </c>
@@ -30959,6 +31643,18 @@
         <f t="shared" si="19"/>
         <v>2.5874058390000001</v>
       </c>
+      <c r="L249" s="3">
+        <f>((K249))-((AVERAGE(K260:K262)))</f>
+        <v>1.2996053523333333</v>
+      </c>
+      <c r="M249" s="4">
+        <f t="shared" si="25"/>
+        <v>5.909199639277797</v>
+      </c>
+      <c r="N249" s="4">
+        <f t="shared" si="24"/>
+        <v>0.18908257005761095</v>
+      </c>
       <c r="O249" s="6" t="s">
         <v>26</v>
       </c>
@@ -30985,6 +31681,12 @@
       <c r="G250" s="2">
         <v>10</v>
       </c>
+      <c r="H250">
+        <v>5.407</v>
+      </c>
+      <c r="I250">
+        <v>0.88107648999999999</v>
+      </c>
       <c r="J250" s="5">
         <v>-2.0928979619999999</v>
       </c>
@@ -30992,6 +31694,18 @@
         <f t="shared" si="19"/>
         <v>2.0928979619999999</v>
       </c>
+      <c r="L250" s="3">
+        <f>((K250))-((AVERAGE(K260:K262)))</f>
+        <v>0.80509747533333309</v>
+      </c>
+      <c r="M250" s="4">
+        <f t="shared" si="25"/>
+        <v>3.5735785847974837</v>
+      </c>
+      <c r="N250" s="4">
+        <f t="shared" si="24"/>
+        <v>0.11434736755634989</v>
+      </c>
       <c r="O250" s="6" t="s">
         <v>26</v>
       </c>
@@ -31018,6 +31732,12 @@
       <c r="G251" s="2">
         <v>10</v>
       </c>
+      <c r="H251">
+        <v>5.9440999999999997</v>
+      </c>
+      <c r="I251">
+        <v>1.01671611</v>
+      </c>
       <c r="J251" s="5">
         <v>-3.7247103940000001</v>
       </c>
@@ -31025,6 +31745,18 @@
         <f t="shared" si="19"/>
         <v>3.7247103940000001</v>
       </c>
+      <c r="L251" s="3">
+        <f>((K251))-((AVERAGE(K263:K265)))</f>
+        <v>2.6062706346666671</v>
+      </c>
+      <c r="M251" s="4">
+        <f t="shared" si="25"/>
+        <v>10.523122967648597</v>
+      </c>
+      <c r="N251" s="4">
+        <f t="shared" si="24"/>
+        <v>0.33671888871881978</v>
+      </c>
       <c r="O251" s="6" t="s">
         <v>26</v>
       </c>
@@ -31051,6 +31783,12 @@
       <c r="G252" s="2">
         <v>10</v>
       </c>
+      <c r="H252">
+        <v>6.0815999999999999</v>
+      </c>
+      <c r="I252">
+        <v>1.07936341</v>
+      </c>
       <c r="J252" s="5">
         <v>-4.06320075</v>
       </c>
@@ -31058,6 +31796,18 @@
         <f t="shared" si="19"/>
         <v>4.06320075</v>
       </c>
+      <c r="L252" s="3">
+        <f>((K252))-((AVERAGE(K263:K265)))</f>
+        <v>2.9447609906666665</v>
+      </c>
+      <c r="M252" s="4">
+        <f t="shared" si="25"/>
+        <v>11.620998384635621</v>
+      </c>
+      <c r="N252" s="4">
+        <f t="shared" si="24"/>
+        <v>0.37184870631157063</v>
+      </c>
       <c r="O252" s="6" t="s">
         <v>26</v>
       </c>
@@ -31084,6 +31834,12 @@
       <c r="G253" s="2">
         <v>10</v>
       </c>
+      <c r="H253">
+        <v>6.4194000000000004</v>
+      </c>
+      <c r="I253">
+        <v>0.94196451999999997</v>
+      </c>
       <c r="J253" s="5">
         <v>-3.9484033959999998</v>
       </c>
@@ -31091,6 +31847,18 @@
         <f t="shared" si="19"/>
         <v>3.9484033959999998</v>
       </c>
+      <c r="L253" s="3">
+        <f>((K253))-((AVERAGE(K263:K265)))</f>
+        <v>2.8299636366666663</v>
+      </c>
+      <c r="M253" s="4">
+        <f t="shared" si="25"/>
+        <v>10.580292126990059</v>
+      </c>
+      <c r="N253" s="4">
+        <f t="shared" si="24"/>
+        <v>0.33854818747942794</v>
+      </c>
       <c r="O253" s="6" t="s">
         <v>26</v>
       </c>
@@ -31117,10 +31885,10 @@
       <c r="G254" s="2">
         <v>10</v>
       </c>
-      <c r="H254" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I254" s="2" t="s">
+      <c r="H254" t="s">
+        <v>167</v>
+      </c>
+      <c r="I254" t="s">
         <v>167</v>
       </c>
       <c r="J254" s="5">
@@ -31130,10 +31898,15 @@
         <f t="shared" si="19"/>
         <v>1.513166241</v>
       </c>
+      <c r="L254" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M254" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N254" s="2"/>
+      <c r="N254" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O254" s="6" t="s">
         <v>158</v>
       </c>
@@ -31160,10 +31933,10 @@
       <c r="G255" s="2">
         <v>10</v>
       </c>
-      <c r="H255" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I255" s="2" t="s">
+      <c r="H255" t="s">
+        <v>167</v>
+      </c>
+      <c r="I255" t="s">
         <v>167</v>
       </c>
       <c r="J255" s="5">
@@ -31173,10 +31946,15 @@
         <f t="shared" si="19"/>
         <v>1.1852912769999999</v>
       </c>
+      <c r="L255" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M255" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N255" s="2"/>
+      <c r="N255" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O255" s="6" t="s">
         <v>158</v>
       </c>
@@ -31203,10 +31981,10 @@
       <c r="G256" s="2">
         <v>10</v>
       </c>
-      <c r="H256" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I256" s="2" t="s">
+      <c r="H256" t="s">
+        <v>167</v>
+      </c>
+      <c r="I256" t="s">
         <v>167</v>
       </c>
       <c r="J256" s="5">
@@ -31216,10 +31994,15 @@
         <f t="shared" si="19"/>
         <v>1.116974133</v>
       </c>
+      <c r="L256" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M256" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N256" s="2"/>
+      <c r="N256" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O256" s="6" t="s">
         <v>39</v>
       </c>
@@ -31246,10 +32029,10 @@
       <c r="G257" s="2">
         <v>10</v>
       </c>
-      <c r="H257" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I257" s="2" t="s">
+      <c r="H257" t="s">
+        <v>167</v>
+      </c>
+      <c r="I257" t="s">
         <v>167</v>
       </c>
       <c r="J257" s="5">
@@ -31259,10 +32042,15 @@
         <f t="shared" si="19"/>
         <v>1.2900380490000001</v>
       </c>
+      <c r="L257" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M257" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N257" s="2"/>
+      <c r="N257" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O257" s="6" t="s">
         <v>158</v>
       </c>
@@ -31289,10 +32077,10 @@
       <c r="G258" s="2">
         <v>10</v>
       </c>
-      <c r="H258" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I258" s="2" t="s">
+      <c r="H258" t="s">
+        <v>167</v>
+      </c>
+      <c r="I258" t="s">
         <v>167</v>
       </c>
       <c r="J258" s="5">
@@ -31302,10 +32090,15 @@
         <f t="shared" si="19"/>
         <v>1.185908731</v>
       </c>
+      <c r="L258" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M258" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N258" s="2"/>
+      <c r="N258" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O258" s="6" t="s">
         <v>158</v>
       </c>
@@ -31332,23 +32125,28 @@
       <c r="G259" s="2">
         <v>10</v>
       </c>
-      <c r="H259" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I259" s="2" t="s">
+      <c r="H259" t="s">
+        <v>167</v>
+      </c>
+      <c r="I259" t="s">
         <v>167</v>
       </c>
       <c r="J259" s="5">
         <v>-1.065026136</v>
       </c>
       <c r="K259" s="3">
-        <f t="shared" ref="K259:K322" si="20">ABS(J259)</f>
+        <f t="shared" ref="K259:K322" si="26">ABS(J259)</f>
         <v>1.065026136</v>
       </c>
+      <c r="L259" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M259" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N259" s="2"/>
+      <c r="N259" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O259" s="6" t="s">
         <v>158</v>
       </c>
@@ -31375,23 +32173,28 @@
       <c r="G260" s="2">
         <v>10</v>
       </c>
-      <c r="H260" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I260" s="2" t="s">
+      <c r="H260" t="s">
+        <v>167</v>
+      </c>
+      <c r="I260" t="s">
         <v>167</v>
       </c>
       <c r="J260" s="5">
         <v>-1.154661269</v>
       </c>
       <c r="K260" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.154661269</v>
       </c>
+      <c r="L260" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M260" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N260" s="2"/>
+      <c r="N260" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O260" s="6" t="s">
         <v>158</v>
       </c>
@@ -31418,23 +32221,28 @@
       <c r="G261" s="2">
         <v>10</v>
       </c>
-      <c r="H261" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I261" s="2" t="s">
+      <c r="H261" t="s">
+        <v>167</v>
+      </c>
+      <c r="I261" t="s">
         <v>167</v>
       </c>
       <c r="J261" s="5">
         <v>-1.217131655</v>
       </c>
       <c r="K261" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.217131655</v>
       </c>
+      <c r="L261" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M261" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N261" s="2"/>
+      <c r="N261" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O261" s="6" t="s">
         <v>158</v>
       </c>
@@ -31461,23 +32269,28 @@
       <c r="G262" s="2">
         <v>10</v>
       </c>
-      <c r="H262" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I262" s="2" t="s">
+      <c r="H262" t="s">
+        <v>167</v>
+      </c>
+      <c r="I262" t="s">
         <v>167</v>
       </c>
       <c r="J262" s="5">
         <v>-1.491608536</v>
       </c>
       <c r="K262" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.491608536</v>
       </c>
+      <c r="L262" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M262" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N262" s="2"/>
+      <c r="N262" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O262" s="6" t="s">
         <v>158</v>
       </c>
@@ -31504,23 +32317,28 @@
       <c r="G263" s="2">
         <v>10</v>
       </c>
-      <c r="H263" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I263" s="2" t="s">
+      <c r="H263" t="s">
+        <v>167</v>
+      </c>
+      <c r="I263" t="s">
         <v>167</v>
       </c>
       <c r="J263" s="5">
         <v>-1.1015462229999999</v>
       </c>
       <c r="K263" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.1015462229999999</v>
       </c>
+      <c r="L263" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M263" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N263" s="2"/>
+      <c r="N263" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O263" s="6" t="s">
         <v>158</v>
       </c>
@@ -31547,23 +32365,28 @@
       <c r="G264" s="2">
         <v>10</v>
       </c>
-      <c r="H264" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I264" s="2" t="s">
+      <c r="H264" t="s">
+        <v>167</v>
+      </c>
+      <c r="I264" t="s">
         <v>167</v>
       </c>
       <c r="J264" s="5">
         <v>-1.0491504920000001</v>
       </c>
       <c r="K264" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.0491504920000001</v>
       </c>
+      <c r="L264" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M264" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N264" s="2"/>
+      <c r="N264" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O264" s="6" t="s">
         <v>158</v>
       </c>
@@ -31590,23 +32413,28 @@
       <c r="G265" s="2">
         <v>10</v>
       </c>
-      <c r="H265" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I265" s="2" t="s">
+      <c r="H265" t="s">
+        <v>167</v>
+      </c>
+      <c r="I265" t="s">
         <v>167</v>
       </c>
       <c r="J265" s="5">
         <v>-1.204622563</v>
       </c>
       <c r="K265" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.204622563</v>
       </c>
+      <c r="L265" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M265" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N265" s="2"/>
+      <c r="N265" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O265" s="6" t="s">
         <v>26</v>
       </c>
@@ -31633,12 +32461,30 @@
       <c r="G266" s="2">
         <v>10</v>
       </c>
+      <c r="H266">
+        <v>5.4093</v>
+      </c>
+      <c r="I266">
+        <v>0.93789458000000003</v>
+      </c>
       <c r="J266" s="5">
         <v>-2.9746841509999999</v>
       </c>
       <c r="K266" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2.9746841509999999</v>
+      </c>
+      <c r="L266" s="3">
+        <f>((K266))-((AVERAGE(K278:K280)))</f>
+        <v>1.7136675173333333</v>
+      </c>
+      <c r="M266" s="4">
+        <f>(((((L266/(1000/4))*(60))*1000)/(H266*G266)))</f>
+        <v>7.6032056672767263</v>
+      </c>
+      <c r="N266" s="4">
+        <f>((((((L266/(1000/4))*(60))*31.998)/(H266*G266))))</f>
+        <v>0.2432873749415207</v>
       </c>
       <c r="O266" s="6" t="s">
         <v>26</v>
@@ -31666,12 +32512,30 @@
       <c r="G267" s="2">
         <v>10</v>
       </c>
+      <c r="H267">
+        <v>5.4253</v>
+      </c>
+      <c r="I267">
+        <v>0.53207059999999995</v>
+      </c>
       <c r="J267" s="5">
         <v>-2.6640559439999998</v>
       </c>
       <c r="K267" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2.6640559439999998</v>
+      </c>
+      <c r="L267" s="3">
+        <f>((K267))-((AVERAGE(K278:K280)))</f>
+        <v>1.4030393103333332</v>
+      </c>
+      <c r="M267" s="4">
+        <f>(((((L267/(1000/4))*(60))*1000)/(H267*G267)))</f>
+        <v>6.2066509590253061</v>
+      </c>
+      <c r="N267" s="4">
+        <f>((((((L267/(1000/4))*(60))*31.998)/(H267*G267))))</f>
+        <v>0.19860041738689177</v>
       </c>
       <c r="O267" s="6" t="s">
         <v>39</v>
@@ -31699,12 +32563,30 @@
       <c r="G268" s="2">
         <v>10</v>
       </c>
+      <c r="H268">
+        <v>5.7702</v>
+      </c>
+      <c r="I268">
+        <v>0.75802166999999998</v>
+      </c>
       <c r="J268" s="5">
         <v>-3.5504862570000002</v>
       </c>
       <c r="K268" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>3.5504862570000002</v>
+      </c>
+      <c r="L268" s="3">
+        <f>((K268))-((AVERAGE(K278:K280)))</f>
+        <v>2.2894696233333338</v>
+      </c>
+      <c r="M268" s="4">
+        <f>(((((L268/(1000/4))*(60))*1000)/(H268*G268)))</f>
+        <v>9.5225938373020025</v>
+      </c>
+      <c r="N268" s="4">
+        <f t="shared" ref="N268:N277" si="27">((((((L268/(1000/4))*(60))*31.998)/(H268*G268))))</f>
+        <v>0.30470395760598951</v>
       </c>
       <c r="O268" s="6" t="s">
         <v>26</v>
@@ -31732,12 +32614,30 @@
       <c r="G269" s="2">
         <v>10</v>
       </c>
+      <c r="H269">
+        <v>5.1710000000000003</v>
+      </c>
+      <c r="I269">
+        <v>1.1538548</v>
+      </c>
       <c r="J269" s="5">
         <v>-1.751344775</v>
       </c>
       <c r="K269" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.751344775</v>
+      </c>
+      <c r="L269" s="3">
+        <f>((K269))-((AVERAGE(K281:K283)))</f>
+        <v>0.43142559799999991</v>
+      </c>
+      <c r="M269" s="4">
+        <f t="shared" ref="M269:M277" si="28">(((((L269/(1000/4))*(60))*1000)/(H269*G269)))</f>
+        <v>2.0023620870237862</v>
+      </c>
+      <c r="N269" s="4">
+        <f t="shared" si="27"/>
+        <v>6.4071582060587107E-2</v>
       </c>
       <c r="O269" s="6" t="s">
         <v>26</v>
@@ -31765,12 +32665,30 @@
       <c r="G270" s="2">
         <v>10</v>
       </c>
+      <c r="H270">
+        <v>6.0945</v>
+      </c>
+      <c r="I270">
+        <v>0.47169981999999999</v>
+      </c>
       <c r="J270" s="5">
         <v>-3.5859465610000001</v>
       </c>
       <c r="K270" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>3.5859465610000001</v>
+      </c>
+      <c r="L270" s="3">
+        <f>((K270))-((AVERAGE(K281:K283)))</f>
+        <v>2.266027384</v>
+      </c>
+      <c r="M270" s="4">
+        <f t="shared" si="28"/>
+        <v>8.9235634122569518</v>
+      </c>
+      <c r="N270" s="4">
+        <f t="shared" si="27"/>
+        <v>0.28553618206539794</v>
       </c>
       <c r="O270" s="6" t="s">
         <v>26</v>
@@ -31798,12 +32716,30 @@
       <c r="G271" s="2">
         <v>10</v>
       </c>
+      <c r="H271">
+        <v>6.5532000000000004</v>
+      </c>
+      <c r="I271">
+        <v>0.53758881000000003</v>
+      </c>
       <c r="J271" s="5">
         <v>-3.0602956109999999</v>
       </c>
       <c r="K271" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>3.0602956109999999</v>
+      </c>
+      <c r="L271" s="3">
+        <f>((K271))-((AVERAGE(K281:K283)))</f>
+        <v>1.7403764339999999</v>
+      </c>
+      <c r="M271" s="4">
+        <f t="shared" si="28"/>
+        <v>6.3738378831715785</v>
+      </c>
+      <c r="N271" s="4">
+        <f t="shared" si="27"/>
+        <v>0.20395006458572415</v>
       </c>
       <c r="O271" s="6" t="s">
         <v>26</v>
@@ -31831,12 +32767,30 @@
       <c r="G272" s="2">
         <v>10</v>
       </c>
+      <c r="H272">
+        <v>5.6105999999999998</v>
+      </c>
+      <c r="I272">
+        <v>0.49837385000000001</v>
+      </c>
       <c r="J272" s="5">
         <v>-3.0220237920000002</v>
       </c>
       <c r="K272" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>3.0220237920000002</v>
+      </c>
+      <c r="L272" s="3">
+        <f>((K272))-((AVERAGE(K284:K286)))</f>
+        <v>1.865301729</v>
+      </c>
+      <c r="M272" s="4">
+        <f t="shared" si="28"/>
+        <v>7.9790470709015091</v>
+      </c>
+      <c r="N272" s="4">
+        <f t="shared" si="27"/>
+        <v>0.25531354817470653</v>
       </c>
       <c r="O272" s="6" t="s">
         <v>26</v>
@@ -31864,12 +32818,30 @@
       <c r="G273" s="2">
         <v>10</v>
       </c>
+      <c r="H273">
+        <v>5.6776999999999997</v>
+      </c>
+      <c r="I273">
+        <v>0.79664882000000004</v>
+      </c>
       <c r="J273" s="5">
         <v>-3.1146745149999999</v>
       </c>
       <c r="K273" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>3.1146745149999999</v>
+      </c>
+      <c r="L273" s="3">
+        <f>((K273))-((AVERAGE(K284:K286)))</f>
+        <v>1.9579524519999998</v>
+      </c>
+      <c r="M273" s="4">
+        <f t="shared" si="28"/>
+        <v>8.2763898846363837</v>
+      </c>
+      <c r="N273" s="4">
+        <f t="shared" si="27"/>
+        <v>0.26482792352859502</v>
       </c>
       <c r="O273" s="6" t="s">
         <v>26</v>
@@ -31897,12 +32869,30 @@
       <c r="G274" s="2">
         <v>10</v>
       </c>
+      <c r="H274">
+        <v>5.6951999999999998</v>
+      </c>
+      <c r="I274">
+        <v>0.62332991000000004</v>
+      </c>
       <c r="J274" s="5">
         <v>-2.6720559420000001</v>
       </c>
       <c r="K274" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2.6720559420000001</v>
+      </c>
+      <c r="L274" s="3">
+        <f>((K274))-((AVERAGE(K284:K286)))</f>
+        <v>1.5153338789999999</v>
+      </c>
+      <c r="M274" s="4">
+        <f t="shared" si="28"/>
+        <v>6.3857306321112528</v>
+      </c>
+      <c r="N274" s="4">
+        <f t="shared" si="27"/>
+        <v>0.20433060876629586</v>
       </c>
       <c r="O274" s="6" t="s">
         <v>26</v>
@@ -31930,12 +32920,30 @@
       <c r="G275" s="2">
         <v>10</v>
       </c>
+      <c r="H275">
+        <v>5.8630000000000004</v>
+      </c>
+      <c r="I275">
+        <v>0.56740893000000003</v>
+      </c>
       <c r="J275" s="5">
         <v>-2.6716360209999999</v>
       </c>
       <c r="K275" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2.6716360209999999</v>
+      </c>
+      <c r="L275" s="3">
+        <f>((K275))-((AVERAGE(K287:K289)))</f>
+        <v>1.5060957039999998</v>
+      </c>
+      <c r="M275" s="4">
+        <f t="shared" si="28"/>
+        <v>6.1651538284154856</v>
+      </c>
+      <c r="N275" s="4">
+        <f t="shared" si="27"/>
+        <v>0.19727259220163873</v>
       </c>
       <c r="O275" s="6" t="s">
         <v>26</v>
@@ -31963,12 +32971,30 @@
       <c r="G276" s="2">
         <v>10</v>
       </c>
+      <c r="H276">
+        <v>5.5816999999999997</v>
+      </c>
+      <c r="I276">
+        <v>0.48548670999999999</v>
+      </c>
       <c r="J276" s="5">
         <v>-2.7340899369999998</v>
       </c>
       <c r="K276" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2.7340899369999998</v>
+      </c>
+      <c r="L276" s="3">
+        <f>((K276))-((AVERAGE(K287:K289)))</f>
+        <v>1.5685496199999998</v>
+      </c>
+      <c r="M276" s="4">
+        <f t="shared" si="28"/>
+        <v>6.7443952344267872</v>
+      </c>
+      <c r="N276" s="4">
+        <f t="shared" si="27"/>
+        <v>0.21580715871118836</v>
       </c>
       <c r="O276" s="6" t="s">
         <v>26</v>
@@ -31996,12 +33022,30 @@
       <c r="G277" s="2">
         <v>10</v>
       </c>
+      <c r="H277">
+        <v>5.5929000000000002</v>
+      </c>
+      <c r="I277">
+        <v>0.57467544999999998</v>
+      </c>
       <c r="J277" s="5">
         <v>-1.936887703</v>
       </c>
       <c r="K277" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.936887703</v>
+      </c>
+      <c r="L277" s="3">
+        <f>((K277))-((AVERAGE(K287:K289)))</f>
+        <v>0.77134738599999997</v>
+      </c>
+      <c r="M277" s="4">
+        <f t="shared" si="28"/>
+        <v>3.3099710819074186</v>
+      </c>
+      <c r="N277" s="4">
+        <f t="shared" si="27"/>
+        <v>0.10591245467887359</v>
       </c>
       <c r="O277" s="6" t="s">
         <v>26</v>
@@ -32029,23 +33073,28 @@
       <c r="G278" s="2">
         <v>10</v>
       </c>
-      <c r="H278" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I278" s="2" t="s">
+      <c r="H278" t="s">
+        <v>167</v>
+      </c>
+      <c r="I278" t="s">
         <v>167</v>
       </c>
       <c r="J278" s="5">
         <v>-1.3381420909999999</v>
       </c>
       <c r="K278" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.3381420909999999</v>
       </c>
+      <c r="L278" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M278" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N278" s="2"/>
+      <c r="N278" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O278" s="6" t="s">
         <v>39</v>
       </c>
@@ -32072,23 +33121,28 @@
       <c r="G279" s="2">
         <v>10</v>
       </c>
-      <c r="H279" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I279" s="2" t="s">
+      <c r="H279" t="s">
+        <v>167</v>
+      </c>
+      <c r="I279" t="s">
         <v>167</v>
       </c>
       <c r="J279" s="5">
         <v>-1.4411508500000001</v>
       </c>
       <c r="K279" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.4411508500000001</v>
       </c>
+      <c r="L279" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M279" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N279" s="2"/>
+      <c r="N279" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O279" s="6" t="s">
         <v>26</v>
       </c>
@@ -32115,23 +33169,28 @@
       <c r="G280" s="2">
         <v>10</v>
       </c>
-      <c r="H280" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I280" s="2" t="s">
+      <c r="H280" t="s">
+        <v>167</v>
+      </c>
+      <c r="I280" t="s">
         <v>167</v>
       </c>
       <c r="J280" s="5">
         <v>-1.00375696</v>
       </c>
       <c r="K280" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.00375696</v>
       </c>
+      <c r="L280" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M280" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N280" s="2"/>
+      <c r="N280" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O280" s="6" t="s">
         <v>26</v>
       </c>
@@ -32158,23 +33217,28 @@
       <c r="G281" s="2">
         <v>10</v>
       </c>
-      <c r="H281" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I281" s="2" t="s">
+      <c r="H281" t="s">
+        <v>167</v>
+      </c>
+      <c r="I281" t="s">
         <v>167</v>
       </c>
       <c r="J281" s="5">
         <v>-1.1642119040000001</v>
       </c>
       <c r="K281" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.1642119040000001</v>
       </c>
+      <c r="L281" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M281" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N281" s="2"/>
+      <c r="N281" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O281" s="6" t="s">
         <v>26</v>
       </c>
@@ -32201,23 +33265,28 @@
       <c r="G282" s="2">
         <v>10</v>
       </c>
-      <c r="H282" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I282" s="2" t="s">
+      <c r="H282" t="s">
+        <v>167</v>
+      </c>
+      <c r="I282" t="s">
         <v>167</v>
       </c>
       <c r="J282" s="5">
         <v>-1.6146806339999999</v>
       </c>
       <c r="K282" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.6146806339999999</v>
       </c>
+      <c r="L282" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M282" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N282" s="2"/>
+      <c r="N282" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O282" s="6" t="s">
         <v>26</v>
       </c>
@@ -32244,23 +33313,28 @@
       <c r="G283" s="2">
         <v>10</v>
       </c>
-      <c r="H283" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I283" s="2" t="s">
+      <c r="H283" t="s">
+        <v>167</v>
+      </c>
+      <c r="I283" t="s">
         <v>167</v>
       </c>
       <c r="J283" s="5">
         <v>-1.1808649929999999</v>
       </c>
       <c r="K283" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.1808649929999999</v>
       </c>
+      <c r="L283" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M283" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N283" s="2"/>
+      <c r="N283" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O283" s="6" t="s">
         <v>158</v>
       </c>
@@ -32287,23 +33361,28 @@
       <c r="G284" s="2">
         <v>10</v>
       </c>
-      <c r="H284" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I284" s="2" t="s">
+      <c r="H284" t="s">
+        <v>167</v>
+      </c>
+      <c r="I284" t="s">
         <v>167</v>
       </c>
       <c r="J284" s="5">
         <v>-1.267411133</v>
       </c>
       <c r="K284" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.267411133</v>
       </c>
+      <c r="L284" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M284" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N284" s="2"/>
+      <c r="N284" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O284" s="6" t="s">
         <v>158</v>
       </c>
@@ -32330,23 +33409,28 @@
       <c r="G285" s="2">
         <v>10</v>
       </c>
-      <c r="H285" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I285" s="2" t="s">
+      <c r="H285" t="s">
+        <v>167</v>
+      </c>
+      <c r="I285" t="s">
         <v>167</v>
       </c>
       <c r="J285" s="5">
         <v>-1.1427417820000001</v>
       </c>
       <c r="K285" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.1427417820000001</v>
       </c>
+      <c r="L285" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M285" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N285" s="2"/>
+      <c r="N285" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O285" s="6" t="s">
         <v>26</v>
       </c>
@@ -32373,23 +33457,28 @@
       <c r="G286" s="2">
         <v>10</v>
       </c>
-      <c r="H286" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I286" s="2" t="s">
+      <c r="H286" t="s">
+        <v>167</v>
+      </c>
+      <c r="I286" t="s">
         <v>167</v>
       </c>
       <c r="J286" s="5">
         <v>-1.0600132739999999</v>
       </c>
       <c r="K286" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.0600132739999999</v>
       </c>
+      <c r="L286" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M286" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N286" s="2"/>
+      <c r="N286" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O286" s="6" t="s">
         <v>26</v>
       </c>
@@ -32416,23 +33505,28 @@
       <c r="G287" s="2">
         <v>10</v>
       </c>
-      <c r="H287" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I287" s="2" t="s">
+      <c r="H287" t="s">
+        <v>167</v>
+      </c>
+      <c r="I287" t="s">
         <v>167</v>
       </c>
       <c r="J287" s="5">
         <v>-1.1248581820000001</v>
       </c>
       <c r="K287" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.1248581820000001</v>
       </c>
+      <c r="L287" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M287" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N287" s="2"/>
+      <c r="N287" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O287" s="6" t="s">
         <v>158</v>
       </c>
@@ -32459,23 +33553,28 @@
       <c r="G288" s="2">
         <v>10</v>
       </c>
-      <c r="H288" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I288" s="2" t="s">
+      <c r="H288" t="s">
+        <v>167</v>
+      </c>
+      <c r="I288" t="s">
         <v>167</v>
       </c>
       <c r="J288" s="5">
         <v>-1.4663130440000001</v>
       </c>
       <c r="K288" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.4663130440000001</v>
       </c>
+      <c r="L288" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M288" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N288" s="2"/>
+      <c r="N288" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O288" s="6" t="s">
         <v>158</v>
       </c>
@@ -32502,23 +33601,28 @@
       <c r="G289" s="2">
         <v>10</v>
       </c>
-      <c r="H289" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I289" s="2" t="s">
+      <c r="H289" t="s">
+        <v>167</v>
+      </c>
+      <c r="I289" t="s">
         <v>167</v>
       </c>
       <c r="J289" s="5">
         <v>-0.90544972499999998</v>
       </c>
       <c r="K289" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.90544972499999998</v>
       </c>
+      <c r="L289" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M289" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N289" s="2"/>
+      <c r="N289" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O289" s="6" t="s">
         <v>158</v>
       </c>
@@ -32545,12 +33649,30 @@
       <c r="G290" s="2">
         <v>10</v>
       </c>
+      <c r="H290">
+        <v>5.7503000000000002</v>
+      </c>
+      <c r="I290">
+        <v>0.50331524000000005</v>
+      </c>
       <c r="J290" s="5">
         <v>-3.1567980690000002</v>
       </c>
       <c r="K290" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>3.1567980690000002</v>
+      </c>
+      <c r="L290" s="3">
+        <f>((K290))-((AVERAGE(K302:K304)))</f>
+        <v>1.9327674483333335</v>
+      </c>
+      <c r="M290" s="4">
+        <f>(((((L290/(1000/4))*(60))*1000)/(H290*G290)))</f>
+        <v>8.0667823870058957</v>
+      </c>
+      <c r="N290" s="4">
+        <f>((((((L290/(1000/4))*(60))*31.998)/(H290*G290))))</f>
+        <v>0.25812090281941469</v>
       </c>
       <c r="O290" s="6" t="s">
         <v>26</v>
@@ -32578,12 +33700,30 @@
       <c r="G291" s="2">
         <v>10</v>
       </c>
+      <c r="H291">
+        <v>5.1148181800000003</v>
+      </c>
+      <c r="I291">
+        <v>0.63479331999999999</v>
+      </c>
       <c r="J291" s="5">
         <v>-4.1985644600000001</v>
       </c>
       <c r="K291" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>4.1985644600000001</v>
+      </c>
+      <c r="L291" s="3">
+        <f>((K291))-((AVERAGE(K302:K304)))</f>
+        <v>2.9745338393333336</v>
+      </c>
+      <c r="M291" s="4">
+        <f>(((((L291/(1000/4))*(60))*1000)/(H291*G291)))</f>
+        <v>13.957253147950608</v>
+      </c>
+      <c r="N291" s="4">
+        <f>((((((L291/(1000/4))*(60))*31.998)/(H291*G291))))</f>
+        <v>0.44660418622812359</v>
       </c>
       <c r="O291" s="6" t="s">
         <v>26</v>
@@ -32611,12 +33751,30 @@
       <c r="G292" s="2">
         <v>10</v>
       </c>
+      <c r="H292">
+        <v>5.1449999999999996</v>
+      </c>
+      <c r="I292">
+        <v>0.71000735999999998</v>
+      </c>
       <c r="J292" s="5">
         <v>-3.4707790150000002</v>
       </c>
       <c r="K292" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>3.4707790150000002</v>
+      </c>
+      <c r="L292" s="3">
+        <f>((K292))-((AVERAGE(K302:K304)))</f>
+        <v>2.2467483943333333</v>
+      </c>
+      <c r="M292" s="4">
+        <f>(((((L292/(1000/4))*(60))*1000)/(H292*G292)))</f>
+        <v>10.480458982312925</v>
+      </c>
+      <c r="N292" s="4">
+        <f t="shared" ref="N292:N301" si="29">((((((L292/(1000/4))*(60))*31.998)/(H292*G292))))</f>
+        <v>0.335353726516049</v>
       </c>
       <c r="O292" s="6" t="s">
         <v>26</v>
@@ -32644,12 +33802,30 @@
       <c r="G293" s="2">
         <v>10</v>
       </c>
+      <c r="H293">
+        <v>5.8223000000000003</v>
+      </c>
+      <c r="I293">
+        <v>0.67544998000000001</v>
+      </c>
       <c r="J293" s="5">
         <v>-2.860889813</v>
       </c>
       <c r="K293" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2.860889813</v>
+      </c>
+      <c r="L293" s="3">
+        <f>((K293))-((AVERAGE(K305:K307)))</f>
+        <v>1.802481666</v>
+      </c>
+      <c r="M293" s="4">
+        <f t="shared" ref="M293:M301" si="30">(((((L293/(1000/4))*(60))*1000)/(H293*G293)))</f>
+        <v>7.429977841059376</v>
+      </c>
+      <c r="N293" s="4">
+        <f t="shared" si="29"/>
+        <v>0.2377444309582179</v>
       </c>
       <c r="O293" s="6" t="s">
         <v>26</v>
@@ -32677,12 +33853,30 @@
       <c r="G294" s="2">
         <v>10</v>
       </c>
+      <c r="H294">
+        <v>5.6284999999999998</v>
+      </c>
+      <c r="I294">
+        <v>1.00165887</v>
+      </c>
       <c r="J294" s="5">
         <v>-3.59426457</v>
       </c>
       <c r="K294" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>3.59426457</v>
+      </c>
+      <c r="L294" s="3">
+        <f>((K294))-((AVERAGE(K305:K307)))</f>
+        <v>2.5358564230000002</v>
+      </c>
+      <c r="M294" s="4">
+        <f t="shared" si="30"/>
+        <v>10.812926028604426</v>
+      </c>
+      <c r="N294" s="4">
+        <f t="shared" si="29"/>
+        <v>0.34599200706328448</v>
       </c>
       <c r="O294" s="6" t="s">
         <v>26</v>
@@ -32710,12 +33904,30 @@
       <c r="G295" s="2">
         <v>10</v>
       </c>
+      <c r="H295">
+        <v>6.0824999999999996</v>
+      </c>
+      <c r="I295">
+        <v>0.54435084</v>
+      </c>
       <c r="J295" s="5">
         <v>-2.784310756</v>
       </c>
       <c r="K295" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2.784310756</v>
+      </c>
+      <c r="L295" s="3">
+        <f>((K295))-((AVERAGE(K305:K307)))</f>
+        <v>1.725902609</v>
+      </c>
+      <c r="M295" s="4">
+        <f t="shared" si="30"/>
+        <v>6.8099733030826144</v>
+      </c>
+      <c r="N295" s="4">
+        <f t="shared" si="29"/>
+        <v>0.2179055257520375</v>
       </c>
       <c r="O295" s="6" t="s">
         <v>26</v>
@@ -32743,12 +33955,30 @@
       <c r="G296" s="2">
         <v>10</v>
       </c>
+      <c r="H296">
+        <v>4.9598000000000004</v>
+      </c>
+      <c r="I296">
+        <v>0.66295698000000003</v>
+      </c>
       <c r="J296" s="5">
         <v>-2.1889887109999999</v>
       </c>
       <c r="K296" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2.1889887109999999</v>
+      </c>
+      <c r="L296" s="3">
+        <f>((K296))-((AVERAGE(K308:K310)))</f>
+        <v>1.1982378696666665</v>
+      </c>
+      <c r="M296" s="4">
+        <f t="shared" si="30"/>
+        <v>5.7981589725392135</v>
+      </c>
+      <c r="N296" s="4">
+        <f t="shared" si="29"/>
+        <v>0.18552949080330974</v>
       </c>
       <c r="O296" s="6" t="s">
         <v>161</v>
@@ -32776,12 +34006,30 @@
       <c r="G297" s="2">
         <v>10</v>
       </c>
+      <c r="H297">
+        <v>5.0408999999999997</v>
+      </c>
+      <c r="I297">
+        <v>0.84771017999999998</v>
+      </c>
       <c r="J297" s="5">
         <v>-2.3480477620000002</v>
       </c>
       <c r="K297" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2.3480477620000002</v>
+      </c>
+      <c r="L297" s="3">
+        <f>((K297))-((AVERAGE(K308:K310)))</f>
+        <v>1.3572969206666667</v>
+      </c>
+      <c r="M297" s="4">
+        <f t="shared" si="30"/>
+        <v>6.4621647118570111</v>
+      </c>
+      <c r="N297" s="4">
+        <f t="shared" si="29"/>
+        <v>0.20677634645000062</v>
       </c>
       <c r="O297" s="6" t="s">
         <v>39</v>
@@ -32809,12 +34057,30 @@
       <c r="G298" s="2">
         <v>10</v>
       </c>
+      <c r="H298">
+        <v>5.6158999999999999</v>
+      </c>
+      <c r="I298">
+        <v>0.70153949000000004</v>
+      </c>
       <c r="J298" s="5">
         <v>-4.2514780229999998</v>
       </c>
       <c r="K298" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>4.2514780229999998</v>
+      </c>
+      <c r="L298" s="3">
+        <f>((K298))-((AVERAGE(K308:K310)))</f>
+        <v>3.2607271816666663</v>
+      </c>
+      <c r="M298" s="4">
+        <f t="shared" si="30"/>
+        <v>13.934979675564023</v>
+      </c>
+      <c r="N298" s="4">
+        <f t="shared" si="29"/>
+        <v>0.44589147965869758</v>
       </c>
       <c r="O298" s="6" t="s">
         <v>26</v>
@@ -32842,12 +34108,30 @@
       <c r="G299" s="2">
         <v>10</v>
       </c>
+      <c r="H299">
+        <v>6.0918000000000001</v>
+      </c>
+      <c r="I299">
+        <v>0.81282140000000003</v>
+      </c>
       <c r="J299" s="5">
         <v>-3.5844904889999998</v>
       </c>
       <c r="K299" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>3.5844904889999998</v>
+      </c>
+      <c r="L299" s="3">
+        <f>((K299))-((AVERAGE(K311:K313)))</f>
+        <v>2.3924415863333333</v>
+      </c>
+      <c r="M299" s="4">
+        <f t="shared" si="30"/>
+        <v>9.4255553485012662</v>
+      </c>
+      <c r="N299" s="4">
+        <f t="shared" si="29"/>
+        <v>0.30159892004134348</v>
       </c>
       <c r="O299" s="6" t="s">
         <v>26</v>
@@ -32875,12 +34159,30 @@
       <c r="G300" s="2">
         <v>10</v>
       </c>
+      <c r="H300">
+        <v>5.8459000000000003</v>
+      </c>
+      <c r="I300">
+        <v>1.0008879900000001</v>
+      </c>
       <c r="J300" s="5">
         <v>-4.654198139</v>
       </c>
       <c r="K300" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>4.654198139</v>
+      </c>
+      <c r="L300" s="3">
+        <f>((K300))-((AVERAGE(K311:K313)))</f>
+        <v>3.4621492363333335</v>
+      </c>
+      <c r="M300" s="4">
+        <f t="shared" si="30"/>
+        <v>14.213650878735525</v>
+      </c>
+      <c r="N300" s="4">
+        <f t="shared" si="29"/>
+        <v>0.45480840081777935</v>
       </c>
       <c r="O300" s="6" t="s">
         <v>39</v>
@@ -32908,12 +34210,30 @@
       <c r="G301" s="2">
         <v>10</v>
       </c>
+      <c r="H301">
+        <v>6.4504000000000001</v>
+      </c>
+      <c r="I301">
+        <v>0.83726688000000005</v>
+      </c>
       <c r="J301" s="5">
         <v>-5.0483832749999999</v>
       </c>
       <c r="K301" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>5.0483832749999999</v>
+      </c>
+      <c r="L301" s="3">
+        <f>((K301))-((AVERAGE(K311:K313)))</f>
+        <v>3.8563343723333334</v>
+      </c>
+      <c r="M301" s="4">
+        <f t="shared" si="30"/>
+        <v>14.348261338211582</v>
+      </c>
+      <c r="N301" s="4">
+        <f t="shared" si="29"/>
+        <v>0.45911566630009426</v>
       </c>
       <c r="O301" s="6" t="s">
         <v>26</v>
@@ -32941,23 +34261,28 @@
       <c r="G302" s="2">
         <v>10</v>
       </c>
-      <c r="H302" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I302" s="2" t="s">
+      <c r="H302" t="s">
+        <v>167</v>
+      </c>
+      <c r="I302" t="s">
         <v>167</v>
       </c>
       <c r="J302" s="5">
         <v>-1.3624493049999999</v>
       </c>
       <c r="K302" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.3624493049999999</v>
       </c>
+      <c r="L302" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M302" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N302" s="2"/>
+      <c r="N302" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O302" s="6" t="s">
         <v>26</v>
       </c>
@@ -32984,23 +34309,28 @@
       <c r="G303" s="2">
         <v>10</v>
       </c>
-      <c r="H303" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I303" s="2" t="s">
+      <c r="H303" t="s">
+        <v>167</v>
+      </c>
+      <c r="I303" t="s">
         <v>167</v>
       </c>
       <c r="J303" s="5">
         <v>-1.1527714309999999</v>
       </c>
       <c r="K303" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.1527714309999999</v>
       </c>
+      <c r="L303" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M303" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N303" s="2"/>
+      <c r="N303" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O303" s="6" t="s">
         <v>26</v>
       </c>
@@ -33027,23 +34357,28 @@
       <c r="G304" s="2">
         <v>10</v>
       </c>
-      <c r="H304" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I304" s="2" t="s">
+      <c r="H304" t="s">
+        <v>167</v>
+      </c>
+      <c r="I304" t="s">
         <v>167</v>
       </c>
       <c r="J304" s="5">
         <v>-1.156871126</v>
       </c>
       <c r="K304" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.156871126</v>
       </c>
+      <c r="L304" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M304" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N304" s="2"/>
+      <c r="N304" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O304" s="6" t="s">
         <v>26</v>
       </c>
@@ -33070,23 +34405,28 @@
       <c r="G305" s="2">
         <v>10</v>
       </c>
-      <c r="H305" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I305" s="2" t="s">
+      <c r="H305" t="s">
+        <v>167</v>
+      </c>
+      <c r="I305" t="s">
         <v>167</v>
       </c>
       <c r="J305" s="5">
         <v>-1.1441747410000001</v>
       </c>
       <c r="K305" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.1441747410000001</v>
       </c>
+      <c r="L305" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M305" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N305" s="2"/>
+      <c r="N305" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O305" s="6" t="s">
         <v>26</v>
       </c>
@@ -33113,23 +34453,28 @@
       <c r="G306" s="2">
         <v>10</v>
       </c>
-      <c r="H306" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I306" s="2" t="s">
+      <c r="H306" t="s">
+        <v>167</v>
+      </c>
+      <c r="I306" t="s">
         <v>167</v>
       </c>
       <c r="J306" s="5">
         <v>-1.073609338</v>
       </c>
       <c r="K306" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.073609338</v>
       </c>
+      <c r="L306" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M306" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N306" s="2"/>
+      <c r="N306" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O306" s="6" t="s">
         <v>158</v>
       </c>
@@ -33156,23 +34501,28 @@
       <c r="G307" s="2">
         <v>10</v>
       </c>
-      <c r="H307" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I307" s="2" t="s">
+      <c r="H307" t="s">
+        <v>167</v>
+      </c>
+      <c r="I307" t="s">
         <v>167</v>
       </c>
       <c r="J307" s="5">
         <v>-0.95744036200000004</v>
       </c>
       <c r="K307" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.95744036200000004</v>
       </c>
+      <c r="L307" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M307" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N307" s="2"/>
+      <c r="N307" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O307" s="6" t="s">
         <v>158</v>
       </c>
@@ -33199,23 +34549,28 @@
       <c r="G308" s="2">
         <v>10</v>
       </c>
-      <c r="H308" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I308" s="2" t="s">
+      <c r="H308" t="s">
+        <v>167</v>
+      </c>
+      <c r="I308" t="s">
         <v>167</v>
       </c>
       <c r="J308" s="5">
         <v>-0.92348887800000001</v>
       </c>
       <c r="K308" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.92348887800000001</v>
       </c>
+      <c r="L308" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M308" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N308" s="2"/>
+      <c r="N308" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O308" s="6" t="s">
         <v>158</v>
       </c>
@@ -33242,23 +34597,28 @@
       <c r="G309" s="2">
         <v>10</v>
       </c>
-      <c r="H309" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I309" s="2" t="s">
+      <c r="H309" t="s">
+        <v>167</v>
+      </c>
+      <c r="I309" t="s">
         <v>167</v>
       </c>
       <c r="J309" s="5">
         <v>-0.99272366400000001</v>
       </c>
       <c r="K309" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.99272366400000001</v>
       </c>
+      <c r="L309" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M309" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N309" s="2"/>
+      <c r="N309" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O309" s="6" t="s">
         <v>158</v>
       </c>
@@ -33285,23 +34645,28 @@
       <c r="G310" s="2">
         <v>10</v>
       </c>
-      <c r="H310" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I310" s="2" t="s">
+      <c r="H310" t="s">
+        <v>167</v>
+      </c>
+      <c r="I310" t="s">
         <v>167</v>
       </c>
       <c r="J310" s="5">
         <v>-1.0560399819999999</v>
       </c>
       <c r="K310" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.0560399819999999</v>
       </c>
+      <c r="L310" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M310" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N310" s="2"/>
+      <c r="N310" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O310" s="6" t="s">
         <v>26</v>
       </c>
@@ -33328,23 +34693,28 @@
       <c r="G311" s="2">
         <v>10</v>
       </c>
-      <c r="H311" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I311" s="2" t="s">
+      <c r="H311" t="s">
+        <v>167</v>
+      </c>
+      <c r="I311" t="s">
         <v>167</v>
       </c>
       <c r="J311" s="5">
         <v>-1.057062688</v>
       </c>
       <c r="K311" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.057062688</v>
       </c>
+      <c r="L311" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M311" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N311" s="2"/>
+      <c r="N311" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O311" s="6" t="s">
         <v>158</v>
       </c>
@@ -33371,23 +34741,28 @@
       <c r="G312" s="2">
         <v>10</v>
       </c>
-      <c r="H312" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I312" s="2" t="s">
+      <c r="H312" t="s">
+        <v>167</v>
+      </c>
+      <c r="I312" t="s">
         <v>167</v>
       </c>
       <c r="J312" s="5">
         <v>-1.0790648119999999</v>
       </c>
       <c r="K312" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.0790648119999999</v>
       </c>
+      <c r="L312" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M312" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N312" s="2"/>
+      <c r="N312" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O312" s="6" t="s">
         <v>158</v>
       </c>
@@ -33414,23 +34789,28 @@
       <c r="G313" s="2">
         <v>10</v>
       </c>
-      <c r="H313" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I313" s="2" t="s">
+      <c r="H313" t="s">
+        <v>167</v>
+      </c>
+      <c r="I313" t="s">
         <v>167</v>
       </c>
       <c r="J313" s="5">
         <v>-1.4400192080000001</v>
       </c>
       <c r="K313" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.4400192080000001</v>
       </c>
+      <c r="L313" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M313" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N313" s="2"/>
+      <c r="N313" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O313" s="6" t="s">
         <v>26</v>
       </c>
@@ -33457,12 +34837,30 @@
       <c r="G314" s="2">
         <v>10</v>
       </c>
+      <c r="H314">
+        <v>5.5749000000000004</v>
+      </c>
+      <c r="I314">
+        <v>0.81046426000000005</v>
+      </c>
       <c r="J314" s="5">
         <v>-3.4287421519999999</v>
       </c>
       <c r="K314" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>3.4287421519999999</v>
+      </c>
+      <c r="L314" s="3">
+        <f>((K314))-((AVERAGE(K326:K328)))</f>
+        <v>2.3261488263333332</v>
+      </c>
+      <c r="M314" s="4">
+        <f>(((((L314/(1000/4))*(60))*1000)/(H314*G314)))</f>
+        <v>10.014093854957038</v>
+      </c>
+      <c r="N314" s="4">
+        <f>((((((L314/(1000/4))*(60))*31.998)/(H314*G314))))</f>
+        <v>0.32043097517091529</v>
       </c>
       <c r="O314" s="6" t="s">
         <v>26</v>
@@ -33490,12 +34888,30 @@
       <c r="G315" s="2">
         <v>10</v>
       </c>
+      <c r="H315">
+        <v>5.5819000000000001</v>
+      </c>
+      <c r="I315">
+        <v>0.72157811999999999</v>
+      </c>
       <c r="J315" s="5">
         <v>-4.2305150539999996</v>
       </c>
       <c r="K315" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>4.2305150539999996</v>
+      </c>
+      <c r="L315" s="3">
+        <f>((K315))-((AVERAGE(K326:K328)))</f>
+        <v>3.1279217283333329</v>
+      </c>
+      <c r="M315" s="4">
+        <f>(((((L315/(1000/4))*(60))*1000)/(H315*G315)))</f>
+        <v>13.448847431878034</v>
+      </c>
+      <c r="N315" s="4">
+        <f>((((((L315/(1000/4))*(60))*31.998)/(H315*G315))))</f>
+        <v>0.43033622012523332</v>
       </c>
       <c r="O315" s="6" t="s">
         <v>26</v>
@@ -33523,12 +34939,30 @@
       <c r="G316" s="2">
         <v>10</v>
       </c>
+      <c r="H316">
+        <v>5.7561999999999998</v>
+      </c>
+      <c r="I316">
+        <v>0.69731863999999999</v>
+      </c>
       <c r="J316" s="5">
         <v>-3.673383158</v>
       </c>
       <c r="K316" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>3.673383158</v>
+      </c>
+      <c r="L316" s="3">
+        <f>((K316))-((AVERAGE(K326:K328)))</f>
+        <v>2.5707898323333334</v>
+      </c>
+      <c r="M316" s="4">
+        <f>(((((L316/(1000/4))*(60))*1000)/(H316*G316)))</f>
+        <v>10.718695663111081</v>
+      </c>
+      <c r="N316" s="4">
+        <f t="shared" ref="N316:N325" si="31">((((((L316/(1000/4))*(60))*31.998)/(H316*G316))))</f>
+        <v>0.34297682382822842</v>
       </c>
       <c r="O316" s="6" t="s">
         <v>26</v>
@@ -33556,12 +34990,30 @@
       <c r="G317" s="2">
         <v>10</v>
       </c>
+      <c r="H317">
+        <v>6.0682</v>
+      </c>
+      <c r="I317">
+        <v>0.89858788000000001</v>
+      </c>
       <c r="J317" s="5">
         <v>-4.3068985179999997</v>
       </c>
       <c r="K317" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>4.3068985179999997</v>
+      </c>
+      <c r="L317" s="3">
+        <f>((K317))-((AVERAGE(K329:K331)))</f>
+        <v>3.3680335243333333</v>
+      </c>
+      <c r="M317" s="4">
+        <f t="shared" ref="M317:M325" si="32">(((((L317/(1000/4))*(60))*1000)/(H317*G317)))</f>
+        <v>13.320721891829537</v>
+      </c>
+      <c r="N317" s="4">
+        <f t="shared" si="31"/>
+        <v>0.42623645909476149</v>
       </c>
       <c r="O317" s="6" t="s">
         <v>26</v>
@@ -33589,12 +35041,30 @@
       <c r="G318" s="2">
         <v>10</v>
       </c>
+      <c r="H318">
+        <v>6.0838000000000001</v>
+      </c>
+      <c r="I318">
+        <v>0.94299060999999995</v>
+      </c>
       <c r="J318" s="5">
         <v>-3.7911395250000002</v>
       </c>
       <c r="K318" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>3.7911395250000002</v>
+      </c>
+      <c r="L318" s="3">
+        <f>((K318))-((AVERAGE(K329:K331)))</f>
+        <v>2.8522745313333338</v>
+      </c>
+      <c r="M318" s="4">
+        <f t="shared" si="32"/>
+        <v>11.251945946941058</v>
+      </c>
+      <c r="N318" s="4">
+        <f t="shared" si="31"/>
+        <v>0.36003976641022001</v>
       </c>
       <c r="O318" s="6" t="s">
         <v>26</v>
@@ -33622,12 +35092,30 @@
       <c r="G319" s="2">
         <v>10</v>
       </c>
+      <c r="H319">
+        <v>6.0025000000000004</v>
+      </c>
+      <c r="I319">
+        <v>0.62091514000000003</v>
+      </c>
       <c r="J319" s="5">
         <v>-3.2968164600000001</v>
       </c>
       <c r="K319" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>3.2968164600000001</v>
+      </c>
+      <c r="L319" s="3">
+        <f>((K319))-((AVERAGE(K329:K331)))</f>
+        <v>2.3579514663333336</v>
+      </c>
+      <c r="M319" s="4">
+        <f t="shared" si="32"/>
+        <v>9.4278775830070813</v>
+      </c>
+      <c r="N319" s="4">
+        <f t="shared" si="31"/>
+        <v>0.30167322690106058</v>
       </c>
       <c r="O319" s="6" t="s">
         <v>26</v>
@@ -33655,12 +35143,30 @@
       <c r="G320" s="2">
         <v>10</v>
       </c>
+      <c r="H320">
+        <v>5.3615454600000003</v>
+      </c>
+      <c r="I320">
+        <v>0.68520133999999999</v>
+      </c>
       <c r="J320" s="5">
         <v>-2.15249801</v>
       </c>
       <c r="K320" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2.15249801</v>
+      </c>
+      <c r="L320" s="3">
+        <f>((K320))-((AVERAGE(K332:K334)))</f>
+        <v>1.018549755</v>
+      </c>
+      <c r="M320" s="4">
+        <f t="shared" si="32"/>
+        <v>4.559355936152035</v>
+      </c>
+      <c r="N320" s="4">
+        <f t="shared" si="31"/>
+        <v>0.14589027124499282</v>
       </c>
       <c r="O320" s="6" t="s">
         <v>26</v>
@@ -33688,12 +35194,30 @@
       <c r="G321" s="2">
         <v>10</v>
       </c>
+      <c r="H321">
+        <v>5.9542999999999999</v>
+      </c>
+      <c r="I321">
+        <v>0.50420103000000005</v>
+      </c>
       <c r="J321" s="5">
         <v>-2.6978153680000001</v>
       </c>
       <c r="K321" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2.6978153680000001</v>
+      </c>
+      <c r="L321" s="3">
+        <f>((K321))-((AVERAGE(K332:K334)))</f>
+        <v>1.5638671130000001</v>
+      </c>
+      <c r="M321" s="4">
+        <f t="shared" si="32"/>
+        <v>6.303479957677645</v>
+      </c>
+      <c r="N321" s="4">
+        <f t="shared" si="31"/>
+        <v>0.20169875168576928</v>
       </c>
       <c r="O321" s="6" t="s">
         <v>26</v>
@@ -33721,12 +35245,30 @@
       <c r="G322" s="2">
         <v>10</v>
       </c>
+      <c r="H322">
+        <v>5.4226999999999999</v>
+      </c>
+      <c r="I322">
+        <v>0.73728782999999998</v>
+      </c>
       <c r="J322" s="5">
         <v>-2.4460323160000002</v>
       </c>
       <c r="K322" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2.4460323160000002</v>
+      </c>
+      <c r="L322" s="3">
+        <f>((K322))-((AVERAGE(K332:K334)))</f>
+        <v>1.3120840610000002</v>
+      </c>
+      <c r="M322" s="4">
+        <f t="shared" si="32"/>
+        <v>5.8070734991793769</v>
+      </c>
+      <c r="N322" s="4">
+        <f t="shared" si="31"/>
+        <v>0.18581473782674168</v>
       </c>
       <c r="O322" s="6" t="s">
         <v>26</v>
@@ -33754,12 +35296,30 @@
       <c r="G323" s="2">
         <v>10</v>
       </c>
+      <c r="H323">
+        <v>5.7556000000000003</v>
+      </c>
+      <c r="I323">
+        <v>0.63525640999999999</v>
+      </c>
       <c r="J323" s="5">
         <v>-2.5687493269999999</v>
       </c>
       <c r="K323" s="3">
-        <f t="shared" ref="K323:K385" si="21">ABS(J323)</f>
+        <f t="shared" ref="K323:K385" si="33">ABS(J323)</f>
         <v>2.5687493269999999</v>
+      </c>
+      <c r="L323" s="3">
+        <f>((K323))-((AVERAGE(K335:K337)))</f>
+        <v>1.058121248</v>
+      </c>
+      <c r="M323" s="4">
+        <f t="shared" si="32"/>
+        <v>4.4122089707415375</v>
+      </c>
+      <c r="N323" s="4">
+        <f t="shared" si="31"/>
+        <v>0.14118186264578772</v>
       </c>
       <c r="O323" s="6" t="s">
         <v>26</v>
@@ -33787,12 +35347,30 @@
       <c r="G324" s="2">
         <v>10</v>
       </c>
+      <c r="H324">
+        <v>5.7892999999999999</v>
+      </c>
+      <c r="I324">
+        <v>0.67854961000000003</v>
+      </c>
       <c r="J324" s="5">
         <v>-1.9900248270000001</v>
       </c>
       <c r="K324" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.9900248270000001</v>
+      </c>
+      <c r="L324" s="3">
+        <f>((K324))-((AVERAGE(K335:K337)))</f>
+        <v>0.47939674800000009</v>
+      </c>
+      <c r="M324" s="4">
+        <f t="shared" si="32"/>
+        <v>1.9873770493842089</v>
+      </c>
+      <c r="N324" s="4">
+        <f t="shared" si="31"/>
+        <v>6.3592090826195921E-2</v>
       </c>
       <c r="O324" s="6" t="s">
         <v>26</v>
@@ -33820,12 +35398,30 @@
       <c r="G325" s="2">
         <v>10</v>
       </c>
+      <c r="H325">
+        <v>5.5796000000000001</v>
+      </c>
+      <c r="I325">
+        <v>0.48636662000000003</v>
+      </c>
       <c r="J325" s="5">
         <v>-3.739373128</v>
       </c>
       <c r="K325" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>3.739373128</v>
+      </c>
+      <c r="L325" s="3">
+        <f>((K325))-((AVERAGE(K335:K337)))</f>
+        <v>2.228745049</v>
+      </c>
+      <c r="M325" s="4">
+        <f t="shared" si="32"/>
+        <v>9.5866874284894958</v>
+      </c>
+      <c r="N325" s="4">
+        <f t="shared" si="31"/>
+        <v>0.30675482433680695</v>
       </c>
       <c r="O325" s="6" t="s">
         <v>26</v>
@@ -33853,23 +35449,28 @@
       <c r="G326" s="2">
         <v>10</v>
       </c>
-      <c r="H326" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I326" s="2" t="s">
+      <c r="H326" t="s">
+        <v>167</v>
+      </c>
+      <c r="I326" t="s">
         <v>167</v>
       </c>
       <c r="J326" s="5">
         <v>-1.5532157790000001</v>
       </c>
       <c r="K326" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.5532157790000001</v>
       </c>
+      <c r="L326" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M326" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N326" s="2"/>
+      <c r="N326" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O326" s="6" t="s">
         <v>26</v>
       </c>
@@ -33896,23 +35497,28 @@
       <c r="G327" s="2">
         <v>10</v>
       </c>
-      <c r="H327" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I327" s="2" t="s">
+      <c r="H327" t="s">
+        <v>167</v>
+      </c>
+      <c r="I327" t="s">
         <v>167</v>
       </c>
       <c r="J327" s="5">
         <v>-0.834470822</v>
       </c>
       <c r="K327" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.834470822</v>
       </c>
+      <c r="L327" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M327" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N327" s="2"/>
+      <c r="N327" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O327" s="6" t="s">
         <v>26</v>
       </c>
@@ -33939,23 +35545,28 @@
       <c r="G328" s="2">
         <v>10</v>
       </c>
-      <c r="H328" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I328" s="2" t="s">
+      <c r="H328" t="s">
+        <v>167</v>
+      </c>
+      <c r="I328" t="s">
         <v>167</v>
       </c>
       <c r="J328" s="5">
         <v>-0.92009337599999996</v>
       </c>
       <c r="K328" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.92009337599999996</v>
       </c>
+      <c r="L328" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M328" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N328" s="2"/>
+      <c r="N328" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O328" s="6" t="s">
         <v>26</v>
       </c>
@@ -33982,23 +35593,28 @@
       <c r="G329" s="2">
         <v>10</v>
       </c>
-      <c r="H329" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I329" s="2" t="s">
+      <c r="H329" t="s">
+        <v>167</v>
+      </c>
+      <c r="I329" t="s">
         <v>167</v>
       </c>
       <c r="J329" s="5">
         <v>-0.87930028699999996</v>
       </c>
       <c r="K329" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.87930028699999996</v>
       </c>
+      <c r="L329" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M329" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N329" s="2"/>
+      <c r="N329" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O329" s="6" t="s">
         <v>26</v>
       </c>
@@ -34025,23 +35641,28 @@
       <c r="G330" s="2">
         <v>10</v>
       </c>
-      <c r="H330" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I330" s="2" t="s">
+      <c r="H330" t="s">
+        <v>167</v>
+      </c>
+      <c r="I330" t="s">
         <v>167</v>
       </c>
       <c r="J330" s="5">
         <v>-0.85582410499999995</v>
       </c>
       <c r="K330" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.85582410499999995</v>
       </c>
+      <c r="L330" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M330" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N330" s="2"/>
+      <c r="N330" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O330" s="6" t="s">
         <v>26</v>
       </c>
@@ -34068,23 +35689,28 @@
       <c r="G331" s="2">
         <v>10</v>
       </c>
-      <c r="H331" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I331" s="2" t="s">
+      <c r="H331" t="s">
+        <v>167</v>
+      </c>
+      <c r="I331" t="s">
         <v>167</v>
       </c>
       <c r="J331" s="5">
         <v>-1.081470589</v>
       </c>
       <c r="K331" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.081470589</v>
       </c>
+      <c r="L331" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M331" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N331" s="2"/>
+      <c r="N331" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O331" s="6" t="s">
         <v>158</v>
       </c>
@@ -34111,23 +35737,28 @@
       <c r="G332" s="2">
         <v>10</v>
       </c>
-      <c r="H332" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I332" s="2" t="s">
+      <c r="H332" t="s">
+        <v>167</v>
+      </c>
+      <c r="I332" t="s">
         <v>167</v>
       </c>
       <c r="J332" s="5">
         <v>-1.050659797</v>
       </c>
       <c r="K332" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.050659797</v>
       </c>
+      <c r="L332" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M332" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N332" s="2"/>
+      <c r="N332" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O332" s="6" t="s">
         <v>26</v>
       </c>
@@ -34154,23 +35785,28 @@
       <c r="G333" s="2">
         <v>10</v>
       </c>
-      <c r="H333" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I333" s="2" t="s">
+      <c r="H333" t="s">
+        <v>167</v>
+      </c>
+      <c r="I333" t="s">
         <v>167</v>
       </c>
       <c r="J333" s="5">
         <v>-0.96363911199999996</v>
       </c>
       <c r="K333" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.96363911199999996</v>
       </c>
+      <c r="L333" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M333" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N333" s="2"/>
+      <c r="N333" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O333" s="6" t="s">
         <v>26</v>
       </c>
@@ -34197,23 +35833,28 @@
       <c r="G334" s="2">
         <v>10</v>
       </c>
-      <c r="H334" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I334" s="2" t="s">
+      <c r="H334" t="s">
+        <v>167</v>
+      </c>
+      <c r="I334" t="s">
         <v>167</v>
       </c>
       <c r="J334" s="5">
         <v>-1.387545856</v>
       </c>
       <c r="K334" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.387545856</v>
       </c>
+      <c r="L334" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M334" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N334" s="2"/>
+      <c r="N334" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O334" s="6" t="s">
         <v>26</v>
       </c>
@@ -34240,23 +35881,28 @@
       <c r="G335" s="2">
         <v>10</v>
       </c>
-      <c r="H335" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I335" s="2" t="s">
+      <c r="H335" t="s">
+        <v>167</v>
+      </c>
+      <c r="I335" t="s">
         <v>167</v>
       </c>
       <c r="J335" s="5">
         <v>-1.2132177159999999</v>
       </c>
       <c r="K335" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.2132177159999999</v>
       </c>
+      <c r="L335" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M335" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N335" s="2"/>
+      <c r="N335" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O335" s="6" t="s">
         <v>26</v>
       </c>
@@ -34283,23 +35929,28 @@
       <c r="G336" s="2">
         <v>10</v>
       </c>
-      <c r="H336" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I336" s="2" t="s">
+      <c r="H336" t="s">
+        <v>167</v>
+      </c>
+      <c r="I336" t="s">
         <v>167</v>
       </c>
       <c r="J336" s="5">
         <v>-1.784199461</v>
       </c>
       <c r="K336" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.784199461</v>
       </c>
+      <c r="L336" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M336" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N336" s="2"/>
+      <c r="N336" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O336" s="6" t="s">
         <v>26</v>
       </c>
@@ -34326,23 +35977,28 @@
       <c r="G337" s="2">
         <v>10</v>
       </c>
-      <c r="H337" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I337" s="2" t="s">
+      <c r="H337" t="s">
+        <v>167</v>
+      </c>
+      <c r="I337" t="s">
         <v>167</v>
       </c>
       <c r="J337" s="5">
         <v>-1.5344670600000001</v>
       </c>
       <c r="K337" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.5344670600000001</v>
       </c>
+      <c r="L337" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M337" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N337" s="2"/>
+      <c r="N337" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O337" s="6" t="s">
         <v>26</v>
       </c>
@@ -34369,12 +36025,30 @@
       <c r="G338" s="2">
         <v>10</v>
       </c>
+      <c r="H338">
+        <v>4.9118000000000004</v>
+      </c>
+      <c r="I338">
+        <v>0.87559907000000003</v>
+      </c>
       <c r="J338" s="5">
         <v>-2.4222208639999998</v>
       </c>
       <c r="K338" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>2.4222208639999998</v>
+      </c>
+      <c r="L338" s="3">
+        <f>((K338))-((AVERAGE(K350:K352)))</f>
+        <v>1.5829265829999999</v>
+      </c>
+      <c r="M338" s="4">
+        <f>(((((L338/(1000/4))*(60))*1000)/(H338*G338)))</f>
+        <v>7.7344838942953693</v>
+      </c>
+      <c r="N338" s="4">
+        <f>((((((L338/(1000/4))*(60))*31.998)/(H338*G338))))</f>
+        <v>0.24748801564966325</v>
       </c>
       <c r="O338" s="6" t="s">
         <v>26</v>
@@ -34402,12 +36076,30 @@
       <c r="G339" s="2">
         <v>10</v>
       </c>
+      <c r="H339">
+        <v>5.2091000000000003</v>
+      </c>
+      <c r="I339">
+        <v>0.73562830000000001</v>
+      </c>
       <c r="J339" s="5">
         <v>-1.8676608100000001</v>
       </c>
       <c r="K339" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.8676608100000001</v>
+      </c>
+      <c r="L339" s="3">
+        <f>((K339))-((AVERAGE(K350:K352)))</f>
+        <v>1.0283665289999999</v>
+      </c>
+      <c r="M339" s="4">
+        <f>(((((L339/(1000/4))*(60))*1000)/(H339*G339)))</f>
+        <v>4.738015529746022</v>
+      </c>
+      <c r="N339" s="4">
+        <f>((((((L339/(1000/4))*(60))*31.998)/(H339*G339))))</f>
+        <v>0.15160702092081321</v>
       </c>
       <c r="O339" s="6" t="s">
         <v>26</v>
@@ -34435,12 +36127,30 @@
       <c r="G340" s="2">
         <v>10</v>
       </c>
+      <c r="H340">
+        <v>5.7073</v>
+      </c>
+      <c r="I340">
+        <v>0.38290760000000001</v>
+      </c>
       <c r="J340" s="5">
         <v>-3.9200283009999999</v>
       </c>
       <c r="K340" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>3.9200283009999999</v>
+      </c>
+      <c r="L340" s="3">
+        <f>((K340))-((AVERAGE(K350:K352)))</f>
+        <v>3.08073402</v>
+      </c>
+      <c r="M340" s="4">
+        <f>(((((L340/(1000/4))*(60))*1000)/(H340*G340)))</f>
+        <v>12.954920274035006</v>
+      </c>
+      <c r="N340" s="4">
+        <f t="shared" ref="N340:N349" si="34">((((((L340/(1000/4))*(60))*31.998)/(H340*G340))))</f>
+        <v>0.41453153892857214</v>
       </c>
       <c r="O340" s="6" t="s">
         <v>26</v>
@@ -34468,12 +36178,30 @@
       <c r="G341" s="2">
         <v>10</v>
       </c>
+      <c r="H341">
+        <v>5.7218</v>
+      </c>
+      <c r="I341">
+        <v>0.54295525</v>
+      </c>
       <c r="J341" s="5">
         <v>-3.125834073</v>
       </c>
       <c r="K341" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>3.125834073</v>
+      </c>
+      <c r="L341" s="3">
+        <f>((K341))-((AVERAGE(K353:K355)))</f>
+        <v>2.093634888</v>
+      </c>
+      <c r="M341" s="4">
+        <f t="shared" ref="M341:M349" si="35">(((((L341/(1000/4))*(60))*1000)/(H341*G341)))</f>
+        <v>8.7817185696808693</v>
+      </c>
+      <c r="N341" s="4">
+        <f t="shared" si="34"/>
+        <v>0.28099743079264849</v>
       </c>
       <c r="O341" s="6" t="s">
         <v>26</v>
@@ -34501,12 +36229,30 @@
       <c r="G342" s="2">
         <v>10</v>
       </c>
+      <c r="H342">
+        <v>5.6440000000000001</v>
+      </c>
+      <c r="I342">
+        <v>1.0647807300000001</v>
+      </c>
       <c r="J342" s="5">
         <v>-4.014541049</v>
       </c>
       <c r="K342" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>4.014541049</v>
+      </c>
+      <c r="L342" s="3">
+        <f>((K342))-((AVERAGE(K353:K355)))</f>
+        <v>2.9823418639999999</v>
+      </c>
+      <c r="M342" s="4">
+        <f t="shared" si="35"/>
+        <v>12.681822242381289</v>
+      </c>
+      <c r="N342" s="4">
+        <f t="shared" si="34"/>
+        <v>0.40579294811171651</v>
       </c>
       <c r="O342" s="6" t="s">
         <v>26</v>
@@ -34534,12 +36280,30 @@
       <c r="G343" s="2">
         <v>10</v>
       </c>
+      <c r="H343">
+        <v>5.7592999999999996</v>
+      </c>
+      <c r="I343">
+        <v>0.68943955999999995</v>
+      </c>
       <c r="J343" s="5">
         <v>-2.5561316000000001</v>
       </c>
       <c r="K343" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>2.5561316000000001</v>
+      </c>
+      <c r="L343" s="3">
+        <f>((K343))-((AVERAGE(K353:K355)))</f>
+        <v>1.523932415</v>
+      </c>
+      <c r="M343" s="4">
+        <f t="shared" si="35"/>
+        <v>6.3504901567898884</v>
+      </c>
+      <c r="N343" s="4">
+        <f t="shared" si="34"/>
+        <v>0.20320298403696285</v>
       </c>
       <c r="O343" s="6" t="s">
         <v>26</v>
@@ -34567,12 +36331,30 @@
       <c r="G344" s="2">
         <v>10</v>
       </c>
+      <c r="H344">
+        <v>5.2195999999999998</v>
+      </c>
+      <c r="I344">
+        <v>0.80679933000000004</v>
+      </c>
       <c r="J344" s="5">
         <v>-2.915900621</v>
       </c>
       <c r="K344" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>2.915900621</v>
+      </c>
+      <c r="L344" s="3">
+        <f>((K344))-((AVERAGE(K356:K358)))</f>
+        <v>1.8046639849999999</v>
+      </c>
+      <c r="M344" s="4">
+        <f t="shared" si="35"/>
+        <v>8.2979415357498674</v>
+      </c>
+      <c r="N344" s="4">
+        <f t="shared" si="34"/>
+        <v>0.26551753326092425</v>
       </c>
       <c r="O344" s="6" t="s">
         <v>26</v>
@@ -34600,12 +36382,30 @@
       <c r="G345" s="2">
         <v>10</v>
       </c>
+      <c r="H345">
+        <v>4.8940000000000001</v>
+      </c>
+      <c r="I345">
+        <v>0.63933976000000003</v>
+      </c>
       <c r="J345" s="5">
         <v>-2.4870278199999998</v>
       </c>
       <c r="K345" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>2.4870278199999998</v>
+      </c>
+      <c r="L345" s="3">
+        <f>((K345))-((AVERAGE(K356:K358)))</f>
+        <v>1.3757911839999997</v>
+      </c>
+      <c r="M345" s="4">
+        <f t="shared" si="35"/>
+        <v>6.7468304895790752</v>
+      </c>
+      <c r="N345" s="4">
+        <f t="shared" si="34"/>
+        <v>0.21588508200555123</v>
       </c>
       <c r="O345" s="6" t="s">
         <v>26</v>
@@ -34633,12 +36433,30 @@
       <c r="G346" s="2">
         <v>10</v>
       </c>
+      <c r="H346">
+        <v>5.4257999999999997</v>
+      </c>
+      <c r="I346">
+        <v>0.77975264</v>
+      </c>
       <c r="J346" s="5">
         <v>-3.4993547039999999</v>
       </c>
       <c r="K346" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>3.4993547039999999</v>
+      </c>
+      <c r="L346" s="3">
+        <f>((K346))-((AVERAGE(K356:K358)))</f>
+        <v>2.3881180679999998</v>
+      </c>
+      <c r="M346" s="4">
+        <f t="shared" si="35"/>
+        <v>10.563388556894836</v>
+      </c>
+      <c r="N346" s="4">
+        <f t="shared" si="34"/>
+        <v>0.33800730704352094</v>
       </c>
       <c r="O346" s="6" t="s">
         <v>26</v>
@@ -34666,12 +36484,30 @@
       <c r="G347" s="2">
         <v>11</v>
       </c>
+      <c r="H347">
+        <v>5.4257999999999997</v>
+      </c>
+      <c r="I347">
+        <v>0.77975264</v>
+      </c>
       <c r="J347" s="5">
         <v>-4.7149454159999999</v>
       </c>
       <c r="K347" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>4.7149454159999999</v>
+      </c>
+      <c r="L347" s="3">
+        <f>((K347))-((AVERAGE(K359:K361)))</f>
+        <v>3.5308376736666665</v>
+      </c>
+      <c r="M347" s="4">
+        <f t="shared" si="35"/>
+        <v>14.198175077324164</v>
+      </c>
+      <c r="N347" s="4">
+        <f t="shared" si="34"/>
+        <v>0.4543132061242186</v>
       </c>
       <c r="O347" s="6" t="s">
         <v>26</v>
@@ -34699,12 +36535,30 @@
       <c r="G348" s="2">
         <v>10</v>
       </c>
+      <c r="H348">
+        <v>6.1182727300000002</v>
+      </c>
+      <c r="I348">
+        <v>0.81331224999999996</v>
+      </c>
       <c r="J348" s="5">
         <v>-5.5004993969999996</v>
       </c>
       <c r="K348" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>5.5004993969999996</v>
+      </c>
+      <c r="L348" s="3">
+        <f>((K348))-((AVERAGE(K359:K361)))</f>
+        <v>4.3163916546666661</v>
+      </c>
+      <c r="M348" s="4">
+        <f t="shared" si="35"/>
+        <v>16.931804821979547</v>
+      </c>
+      <c r="N348" s="4">
+        <f t="shared" si="34"/>
+        <v>0.54178389069370159</v>
       </c>
       <c r="O348" s="6" t="s">
         <v>26</v>
@@ -34732,12 +36586,30 @@
       <c r="G349" s="2">
         <v>10</v>
       </c>
+      <c r="H349">
+        <v>6.2660999999999998</v>
+      </c>
+      <c r="I349">
+        <v>0.80444258999999996</v>
+      </c>
       <c r="J349" s="5">
         <v>-3.7612422269999999</v>
       </c>
       <c r="K349" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>3.7612422269999999</v>
+      </c>
+      <c r="L349" s="3">
+        <f>((K349))-((AVERAGE(K359:K361)))</f>
+        <v>2.5771344846666668</v>
+      </c>
+      <c r="M349" s="4">
+        <f t="shared" si="35"/>
+        <v>9.8707693193533448</v>
+      </c>
+      <c r="N349" s="4">
+        <f t="shared" si="34"/>
+        <v>0.3158448766806683</v>
       </c>
       <c r="O349" s="6" t="s">
         <v>39</v>
@@ -34765,23 +36637,28 @@
       <c r="G350" s="2">
         <v>10</v>
       </c>
-      <c r="H350" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I350" s="2" t="s">
+      <c r="H350" t="s">
+        <v>167</v>
+      </c>
+      <c r="I350" t="s">
         <v>167</v>
       </c>
       <c r="J350" s="5">
         <v>-0.76374384500000003</v>
       </c>
       <c r="K350" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.76374384500000003</v>
       </c>
+      <c r="L350" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M350" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N350" s="2"/>
+      <c r="N350" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O350" s="6" t="s">
         <v>158</v>
       </c>
@@ -34808,23 +36685,28 @@
       <c r="G351" s="2">
         <v>10</v>
       </c>
-      <c r="H351" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I351" s="2" t="s">
+      <c r="H351" t="s">
+        <v>167</v>
+      </c>
+      <c r="I351" t="s">
         <v>167</v>
       </c>
       <c r="J351" s="5">
         <v>-0.87382669300000004</v>
       </c>
       <c r="K351" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.87382669300000004</v>
       </c>
+      <c r="L351" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M351" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N351" s="2"/>
+      <c r="N351" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O351" s="6" t="s">
         <v>26</v>
       </c>
@@ -34851,23 +36733,28 @@
       <c r="G352" s="2">
         <v>10</v>
       </c>
-      <c r="H352" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I352" s="2" t="s">
+      <c r="H352" t="s">
+        <v>167</v>
+      </c>
+      <c r="I352" t="s">
         <v>167</v>
       </c>
       <c r="J352" s="5">
         <v>-0.88031230500000002</v>
       </c>
       <c r="K352" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.88031230500000002</v>
       </c>
+      <c r="L352" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M352" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N352" s="2"/>
+      <c r="N352" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O352" s="6" t="s">
         <v>158</v>
       </c>
@@ -34894,23 +36781,28 @@
       <c r="G353" s="2">
         <v>10</v>
       </c>
-      <c r="H353" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I353" s="2" t="s">
+      <c r="H353" t="s">
+        <v>167</v>
+      </c>
+      <c r="I353" t="s">
         <v>167</v>
       </c>
       <c r="J353" s="5">
         <v>-1.1142440870000001</v>
       </c>
       <c r="K353" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.1142440870000001</v>
       </c>
+      <c r="L353" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M353" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N353" s="2"/>
+      <c r="N353" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O353" s="6" t="s">
         <v>26</v>
       </c>
@@ -34937,23 +36829,28 @@
       <c r="G354" s="2">
         <v>10</v>
       </c>
-      <c r="H354" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I354" s="2" t="s">
+      <c r="H354" t="s">
+        <v>167</v>
+      </c>
+      <c r="I354" t="s">
         <v>167</v>
       </c>
       <c r="J354" s="5">
         <v>-0.74036897400000001</v>
       </c>
       <c r="K354" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.74036897400000001</v>
       </c>
+      <c r="L354" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M354" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N354" s="2"/>
+      <c r="N354" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O354" s="6" t="s">
         <v>26</v>
       </c>
@@ -34980,23 +36877,28 @@
       <c r="G355" s="2">
         <v>10</v>
       </c>
-      <c r="H355" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I355" s="2" t="s">
+      <c r="H355" t="s">
+        <v>167</v>
+      </c>
+      <c r="I355" t="s">
         <v>167</v>
       </c>
       <c r="J355" s="5">
         <v>-1.241984494</v>
       </c>
       <c r="K355" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.241984494</v>
       </c>
+      <c r="L355" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M355" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N355" s="2"/>
+      <c r="N355" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O355" s="6" t="s">
         <v>26</v>
       </c>
@@ -35023,23 +36925,28 @@
       <c r="G356" s="2">
         <v>10</v>
       </c>
-      <c r="H356" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I356" s="2" t="s">
+      <c r="H356" t="s">
+        <v>167</v>
+      </c>
+      <c r="I356" t="s">
         <v>167</v>
       </c>
       <c r="J356" s="5">
         <v>-1.035904001</v>
       </c>
       <c r="K356" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.035904001</v>
       </c>
+      <c r="L356" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M356" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N356" s="2"/>
+      <c r="N356" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O356" s="6" t="s">
         <v>158</v>
       </c>
@@ -35066,23 +36973,28 @@
       <c r="G357" s="2">
         <v>10</v>
       </c>
-      <c r="H357" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I357" s="2" t="s">
+      <c r="H357" t="s">
+        <v>167</v>
+      </c>
+      <c r="I357" t="s">
         <v>167</v>
       </c>
       <c r="J357" s="5">
         <v>-0.97006479300000004</v>
       </c>
       <c r="K357" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.97006479300000004</v>
       </c>
+      <c r="L357" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M357" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N357" s="2"/>
+      <c r="N357" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O357" s="6" t="s">
         <v>158</v>
       </c>
@@ -35109,23 +37021,28 @@
       <c r="G358" s="2">
         <v>10</v>
       </c>
-      <c r="H358" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I358" s="2" t="s">
+      <c r="H358" t="s">
+        <v>167</v>
+      </c>
+      <c r="I358" t="s">
         <v>167</v>
       </c>
       <c r="J358" s="5">
         <v>-1.3277411139999999</v>
       </c>
       <c r="K358" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.3277411139999999</v>
       </c>
+      <c r="L358" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M358" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N358" s="2"/>
+      <c r="N358" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O358" s="6" t="s">
         <v>26</v>
       </c>
@@ -35152,23 +37069,28 @@
       <c r="G359" s="2">
         <v>10</v>
       </c>
-      <c r="H359" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I359" s="2" t="s">
+      <c r="H359" t="s">
+        <v>167</v>
+      </c>
+      <c r="I359" t="s">
         <v>167</v>
       </c>
       <c r="J359" s="5">
         <v>-1.5362773139999999</v>
       </c>
       <c r="K359" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.5362773139999999</v>
       </c>
+      <c r="L359" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M359" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N359" s="2"/>
+      <c r="N359" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O359" s="6" t="s">
         <v>26</v>
       </c>
@@ -35195,23 +37117,28 @@
       <c r="G360" s="2">
         <v>10</v>
       </c>
-      <c r="H360" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I360" s="2" t="s">
+      <c r="H360" t="s">
+        <v>167</v>
+      </c>
+      <c r="I360" t="s">
         <v>167</v>
       </c>
       <c r="J360" s="5">
         <v>-1.0869314990000001</v>
       </c>
       <c r="K360" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.0869314990000001</v>
       </c>
+      <c r="L360" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M360" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N360" s="2"/>
+      <c r="N360" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O360" s="6" t="s">
         <v>153</v>
       </c>
@@ -35238,23 +37165,28 @@
       <c r="G361" s="2">
         <v>10</v>
       </c>
-      <c r="H361" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I361" s="2" t="s">
+      <c r="H361" t="s">
+        <v>167</v>
+      </c>
+      <c r="I361" t="s">
         <v>167</v>
       </c>
       <c r="J361" s="5">
         <v>-0.92911441400000006</v>
       </c>
       <c r="K361" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.92911441400000006</v>
       </c>
+      <c r="L361" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M361" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N361" s="2"/>
+      <c r="N361" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O361" s="6" t="s">
         <v>26</v>
       </c>
@@ -35281,12 +37213,30 @@
       <c r="G362" s="2">
         <v>10</v>
       </c>
+      <c r="H362">
+        <v>5.8585000000000003</v>
+      </c>
+      <c r="I362">
+        <v>0.62252839999999998</v>
+      </c>
       <c r="J362" s="5">
         <v>-3.3975393669999998</v>
       </c>
       <c r="K362" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>3.3975393669999998</v>
+      </c>
+      <c r="L362" s="3">
+        <f>((K362))-((AVERAGE(K374:K376)))</f>
+        <v>2.247974654333333</v>
+      </c>
+      <c r="M362" s="4">
+        <f>(((((L362/(1000/4))*(60))*1000)/(H362*G362)))</f>
+        <v>9.2090794066740624</v>
+      </c>
+      <c r="N362" s="4">
+        <f>((((((L362/(1000/4))*(60))*31.998)/(H362*G362))))</f>
+        <v>0.29467212285475664</v>
       </c>
       <c r="O362" s="6" t="s">
         <v>26</v>
@@ -35314,12 +37264,30 @@
       <c r="G363" s="2">
         <v>10</v>
       </c>
+      <c r="H363">
+        <v>5.3840000000000003</v>
+      </c>
+      <c r="I363">
+        <v>0.86261231000000005</v>
+      </c>
       <c r="J363" s="5">
         <v>-3.4631326869999999</v>
       </c>
       <c r="K363" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>3.4631326869999999</v>
+      </c>
+      <c r="L363" s="3">
+        <f>((K363))-((AVERAGE(K374:K376)))</f>
+        <v>2.3135679743333331</v>
+      </c>
+      <c r="M363" s="4">
+        <f>(((((L363/(1000/4))*(60))*1000)/(H363*G363)))</f>
+        <v>10.31308160921248</v>
+      </c>
+      <c r="N363" s="4">
+        <f>((((((L363/(1000/4))*(60))*31.998)/(H363*G363))))</f>
+        <v>0.32999798533158092</v>
       </c>
       <c r="O363" s="6" t="s">
         <v>26</v>
@@ -35347,12 +37315,30 @@
       <c r="G364" s="2">
         <v>10</v>
       </c>
+      <c r="H364">
+        <v>5.7344999999999997</v>
+      </c>
+      <c r="I364">
+        <v>0.77477169000000001</v>
+      </c>
       <c r="J364" s="5">
         <v>-3.5197693710000002</v>
       </c>
       <c r="K364" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>3.5197693710000002</v>
+      </c>
+      <c r="L364" s="3">
+        <f>((K364))-((AVERAGE(K374:K376)))</f>
+        <v>2.3702046583333334</v>
+      </c>
+      <c r="M364" s="4">
+        <f>(((((L364/(1000/4))*(60))*1000)/(H364*G364)))</f>
+        <v>9.9197683843403972</v>
+      </c>
+      <c r="N364" s="4">
+        <f t="shared" ref="N364:N373" si="36">((((((L364/(1000/4))*(60))*31.998)/(H364*G364))))</f>
+        <v>0.317412748762124</v>
       </c>
       <c r="O364" s="6" t="s">
         <v>26</v>
@@ -35380,12 +37366,30 @@
       <c r="G365" s="2">
         <v>10</v>
       </c>
+      <c r="H365">
+        <v>6.1082999999999998</v>
+      </c>
+      <c r="I365">
+        <v>0.71626469999999998</v>
+      </c>
       <c r="J365" s="5">
         <v>-3.1785415060000002</v>
       </c>
       <c r="K365" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>3.1785415060000002</v>
+      </c>
+      <c r="L365" s="3">
+        <f>((K365))-((AVERAGE(K377:K379)))</f>
+        <v>2.022815445</v>
+      </c>
+      <c r="M365" s="4">
+        <f t="shared" ref="M365:M373" si="37">(((((L365/(1000/4))*(60))*1000)/(H365*G365)))</f>
+        <v>7.947803919257403</v>
+      </c>
+      <c r="N365" s="4">
+        <f t="shared" si="36"/>
+        <v>0.2543138298083984</v>
       </c>
       <c r="O365" s="6" t="s">
         <v>26</v>
@@ -35413,12 +37417,30 @@
       <c r="G366" s="2">
         <v>10</v>
       </c>
+      <c r="H366">
+        <v>5.7416999999999998</v>
+      </c>
+      <c r="I366">
+        <v>0.93884824</v>
+      </c>
       <c r="J366" s="5">
         <v>-2.5409497280000002</v>
       </c>
       <c r="K366" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>2.5409497280000002</v>
+      </c>
+      <c r="L366" s="3">
+        <f>((K366))-((AVERAGE(K377:K379)))</f>
+        <v>1.3852236670000002</v>
+      </c>
+      <c r="M366" s="4">
+        <f t="shared" si="37"/>
+        <v>5.7901611035059304</v>
+      </c>
+      <c r="N366" s="4">
+        <f t="shared" si="36"/>
+        <v>0.18527357498998279</v>
       </c>
       <c r="O366" s="6" t="s">
         <v>26</v>
@@ -35446,12 +37468,30 @@
       <c r="G367" s="2">
         <v>10</v>
       </c>
+      <c r="H367">
+        <v>6.5542999999999996</v>
+      </c>
+      <c r="I367">
+        <v>0.77988617999999998</v>
+      </c>
       <c r="J367" s="5">
         <v>-7.1804016739999996</v>
       </c>
       <c r="K367" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>7.1804016739999996</v>
+      </c>
+      <c r="L367" s="3">
+        <f>((K367))-((AVERAGE(K377:K379)))</f>
+        <v>6.0246756129999994</v>
+      </c>
+      <c r="M367" s="4">
+        <f t="shared" si="37"/>
+        <v>22.060664710495399</v>
+      </c>
+      <c r="N367" s="4">
+        <f t="shared" si="36"/>
+        <v>0.70589714940643178</v>
       </c>
       <c r="O367" s="6" t="s">
         <v>163</v>
@@ -35479,12 +37519,30 @@
       <c r="G368" s="2">
         <v>10</v>
       </c>
+      <c r="H368">
+        <v>5.7081</v>
+      </c>
+      <c r="I368">
+        <v>0.63881686999999998</v>
+      </c>
       <c r="J368" s="5">
         <v>-2.1239589510000001</v>
       </c>
       <c r="K368" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>2.1239589510000001</v>
+      </c>
+      <c r="L368" s="3">
+        <f>((K368))-((AVERAGE(K380:K382)))</f>
+        <v>0.90565464566666676</v>
+      </c>
+      <c r="M368" s="4">
+        <f t="shared" si="37"/>
+        <v>3.8078715327341848</v>
+      </c>
+      <c r="N368" s="4">
+        <f t="shared" si="36"/>
+        <v>0.12184427330442844</v>
       </c>
       <c r="O368" s="6" t="s">
         <v>26</v>
@@ -35512,12 +37570,30 @@
       <c r="G369" s="2">
         <v>10</v>
       </c>
+      <c r="H369">
+        <v>5.7534000000000001</v>
+      </c>
+      <c r="I369">
+        <v>0.53352147000000005</v>
+      </c>
       <c r="J369" s="5">
         <v>-3.2386983800000002</v>
       </c>
       <c r="K369" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>3.2386983800000002</v>
+      </c>
+      <c r="L369" s="3">
+        <f>((K369))-((AVERAGE(K380:K382)))</f>
+        <v>2.0203940746666671</v>
+      </c>
+      <c r="M369" s="4">
+        <f t="shared" si="37"/>
+        <v>8.427965688462475</v>
+      </c>
+      <c r="N369" s="4">
+        <f t="shared" si="36"/>
+        <v>0.26967804609942231</v>
       </c>
       <c r="O369" s="6" t="s">
         <v>26</v>
@@ -35545,12 +37621,30 @@
       <c r="G370" s="2">
         <v>10</v>
       </c>
+      <c r="H370">
+        <v>5.6501999999999999</v>
+      </c>
+      <c r="I370">
+        <v>0.59847525000000001</v>
+      </c>
       <c r="J370" s="5">
         <v>-2.5881083340000002</v>
       </c>
       <c r="K370" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>2.5881083340000002</v>
+      </c>
+      <c r="L370" s="3">
+        <f>((K370))-((AVERAGE(K380:K382)))</f>
+        <v>1.3698040286666668</v>
+      </c>
+      <c r="M370" s="4">
+        <f t="shared" si="37"/>
+        <v>5.8184306198010693</v>
+      </c>
+      <c r="N370" s="4">
+        <f t="shared" si="36"/>
+        <v>0.18617814297239463</v>
       </c>
       <c r="O370" s="6" t="s">
         <v>26</v>
@@ -35578,12 +37672,30 @@
       <c r="G371" s="2">
         <v>10</v>
       </c>
+      <c r="H371">
+        <v>5.7312000000000003</v>
+      </c>
+      <c r="I371">
+        <v>0.65937745000000003</v>
+      </c>
       <c r="J371" s="5">
         <v>-2.9611857480000001</v>
       </c>
       <c r="K371" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>2.9611857480000001</v>
+      </c>
+      <c r="L371" s="3">
+        <f>((K371))-((AVERAGE(K383:K385)))</f>
+        <v>1.6427715840000001</v>
+      </c>
+      <c r="M371" s="4">
+        <f t="shared" si="37"/>
+        <v>6.8792779899497489</v>
+      </c>
+      <c r="N371" s="4">
+        <f t="shared" si="36"/>
+        <v>0.22012313712241208</v>
       </c>
       <c r="O371" s="6" t="s">
         <v>26</v>
@@ -35611,12 +37723,30 @@
       <c r="G372" s="2">
         <v>10</v>
       </c>
+      <c r="H372">
+        <v>5.6942000000000004</v>
+      </c>
+      <c r="I372">
+        <v>0.57868967000000004</v>
+      </c>
       <c r="J372" s="5">
         <v>-3.3895615160000001</v>
       </c>
       <c r="K372" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>3.3895615160000001</v>
+      </c>
+      <c r="L372" s="3">
+        <f>((K372))-((AVERAGE(K383:K385)))</f>
+        <v>2.0711473520000001</v>
+      </c>
+      <c r="M372" s="4">
+        <f t="shared" si="37"/>
+        <v>8.7295030817322878</v>
+      </c>
+      <c r="N372" s="4">
+        <f t="shared" si="36"/>
+        <v>0.27932663960926979</v>
       </c>
       <c r="O372" s="6" t="s">
         <v>26</v>
@@ -35644,12 +37774,30 @@
       <c r="G373" s="2">
         <v>10</v>
       </c>
+      <c r="H373">
+        <v>5.7823000000000002</v>
+      </c>
+      <c r="I373">
+        <v>0.66024625999999997</v>
+      </c>
       <c r="J373" s="5">
         <v>-2.9754304839999999</v>
       </c>
       <c r="K373" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>2.9754304839999999</v>
+      </c>
+      <c r="L373" s="3">
+        <f>((K373))-((AVERAGE(K383:K385)))</f>
+        <v>1.6570163199999999</v>
+      </c>
+      <c r="M373" s="4">
+        <f t="shared" si="37"/>
+        <v>6.8776078169586494</v>
+      </c>
+      <c r="N373" s="4">
+        <f t="shared" si="36"/>
+        <v>0.22006969492704287</v>
       </c>
       <c r="O373" s="6" t="s">
         <v>26</v>
@@ -35677,23 +37825,28 @@
       <c r="G374" s="2">
         <v>10</v>
       </c>
-      <c r="H374" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I374" s="2" t="s">
+      <c r="H374" t="s">
+        <v>167</v>
+      </c>
+      <c r="I374" t="s">
         <v>167</v>
       </c>
       <c r="J374" s="5">
         <v>-1.3651537570000001</v>
       </c>
       <c r="K374" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.3651537570000001</v>
       </c>
+      <c r="L374" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M374" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N374" s="2"/>
+      <c r="N374" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O374" s="6" t="s">
         <v>26</v>
       </c>
@@ -35720,23 +37873,28 @@
       <c r="G375" s="2">
         <v>10</v>
       </c>
-      <c r="H375" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I375" s="2" t="s">
+      <c r="H375" t="s">
+        <v>167</v>
+      </c>
+      <c r="I375" t="s">
         <v>167</v>
       </c>
       <c r="J375" s="5">
         <v>-1.3237633870000001</v>
       </c>
       <c r="K375" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.3237633870000001</v>
       </c>
+      <c r="L375" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M375" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N375" s="2"/>
+      <c r="N375" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O375" s="6" t="s">
         <v>26</v>
       </c>
@@ -35763,23 +37921,28 @@
       <c r="G376" s="2">
         <v>10</v>
       </c>
-      <c r="H376" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I376" s="2" t="s">
+      <c r="H376" t="s">
+        <v>167</v>
+      </c>
+      <c r="I376" t="s">
         <v>167</v>
       </c>
       <c r="J376" s="5">
         <v>-0.75977699399999998</v>
       </c>
       <c r="K376" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.75977699399999998</v>
       </c>
+      <c r="L376" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M376" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N376" s="2"/>
+      <c r="N376" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O376" s="6" t="s">
         <v>26</v>
       </c>
@@ -35806,23 +37969,28 @@
       <c r="G377" s="2">
         <v>10</v>
       </c>
-      <c r="H377" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I377" s="2" t="s">
+      <c r="H377" t="s">
+        <v>167</v>
+      </c>
+      <c r="I377" t="s">
         <v>167</v>
       </c>
       <c r="J377" s="5">
         <v>-0.93578420799999995</v>
       </c>
       <c r="K377" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.93578420799999995</v>
       </c>
+      <c r="L377" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M377" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N377" s="2"/>
+      <c r="N377" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O377" s="6" t="s">
         <v>26</v>
       </c>
@@ -35849,23 +38017,28 @@
       <c r="G378" s="2">
         <v>10</v>
       </c>
-      <c r="H378" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I378" s="2" t="s">
+      <c r="H378" t="s">
+        <v>167</v>
+      </c>
+      <c r="I378" t="s">
         <v>167</v>
       </c>
       <c r="J378" s="5">
         <v>-1.4281572650000001</v>
       </c>
       <c r="K378" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.4281572650000001</v>
       </c>
+      <c r="L378" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M378" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N378" s="2"/>
+      <c r="N378" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O378" s="6" t="s">
         <v>39</v>
       </c>
@@ -35892,23 +38065,28 @@
       <c r="G379" s="2">
         <v>10</v>
       </c>
-      <c r="H379" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I379" s="2" t="s">
+      <c r="H379" t="s">
+        <v>167</v>
+      </c>
+      <c r="I379" t="s">
         <v>167</v>
       </c>
       <c r="J379" s="5">
         <v>-1.10323671</v>
       </c>
       <c r="K379" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.10323671</v>
       </c>
+      <c r="L379" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M379" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N379" s="2"/>
+      <c r="N379" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O379" s="6" t="s">
         <v>26</v>
       </c>
@@ -35935,23 +38113,28 @@
       <c r="G380" s="2">
         <v>10</v>
       </c>
-      <c r="H380" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I380" s="2" t="s">
+      <c r="H380" t="s">
+        <v>167</v>
+      </c>
+      <c r="I380" t="s">
         <v>167</v>
       </c>
       <c r="J380" s="5">
         <v>-1.179251367</v>
       </c>
       <c r="K380" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.179251367</v>
       </c>
+      <c r="L380" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M380" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N380" s="2"/>
+      <c r="N380" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O380" s="6" t="s">
         <v>39</v>
       </c>
@@ -35978,23 +38161,28 @@
       <c r="G381" s="2">
         <v>10</v>
       </c>
-      <c r="H381" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I381" s="2" t="s">
+      <c r="H381" t="s">
+        <v>167</v>
+      </c>
+      <c r="I381" t="s">
         <v>167</v>
       </c>
       <c r="J381" s="5">
         <v>-1.1774402049999999</v>
       </c>
       <c r="K381" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.1774402049999999</v>
       </c>
+      <c r="L381" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M381" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N381" s="2"/>
+      <c r="N381" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O381" s="6" t="s">
         <v>26</v>
       </c>
@@ -36021,23 +38209,28 @@
       <c r="G382" s="2">
         <v>10</v>
       </c>
-      <c r="H382" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I382" s="2" t="s">
+      <c r="H382" t="s">
+        <v>167</v>
+      </c>
+      <c r="I382" t="s">
         <v>167</v>
       </c>
       <c r="J382" s="5">
         <v>-1.2982213440000001</v>
       </c>
       <c r="K382" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.2982213440000001</v>
       </c>
+      <c r="L382" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M382" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N382" s="2"/>
+      <c r="N382" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O382" s="6" t="s">
         <v>39</v>
       </c>
@@ -36064,23 +38257,28 @@
       <c r="G383" s="2">
         <v>10</v>
       </c>
-      <c r="H383" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I383" s="2" t="s">
+      <c r="H383" t="s">
+        <v>167</v>
+      </c>
+      <c r="I383" t="s">
         <v>167</v>
       </c>
       <c r="J383" s="5">
         <v>-1.0659665009999999</v>
       </c>
       <c r="K383" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.0659665009999999</v>
       </c>
+      <c r="L383" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M383" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N383" s="2"/>
+      <c r="N383" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O383" s="6" t="s">
         <v>39</v>
       </c>
@@ -36107,23 +38305,28 @@
       <c r="G384" s="2">
         <v>10</v>
       </c>
-      <c r="H384" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I384" s="2" t="s">
+      <c r="H384" t="s">
+        <v>167</v>
+      </c>
+      <c r="I384" t="s">
         <v>167</v>
       </c>
       <c r="J384" s="5">
         <v>-1.487778812</v>
       </c>
       <c r="K384" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.487778812</v>
       </c>
+      <c r="L384" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M384" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N384" s="2"/>
+      <c r="N384" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O384" s="6" t="s">
         <v>26</v>
       </c>
@@ -36150,23 +38353,28 @@
       <c r="G385" s="2">
         <v>10</v>
       </c>
-      <c r="H385" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I385" s="2" t="s">
+      <c r="H385" t="s">
+        <v>167</v>
+      </c>
+      <c r="I385" t="s">
         <v>167</v>
       </c>
       <c r="J385" s="5">
         <v>-1.4014971789999999</v>
       </c>
       <c r="K385" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.4014971789999999</v>
       </c>
+      <c r="L385" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="M385" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N385" s="2"/>
+      <c r="N385" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="O385" s="6" t="s">
         <v>26</v>
       </c>
